--- a/input_data_example_SA_0208.xlsx
+++ b/input_data_example_SA_0208.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wrhiza-my.sharepoint.com/personal/cparker_wrhi_ac_za/Documents/Desktop/Carbomica_reload0109/carbomica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{B1764027-2E9A-4AEF-8CE1-594B6155B76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CFD5E44-D8DB-4262-AB30-509F0152DC94}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{B1764027-2E9A-4AEF-8CE1-594B6155B76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98D673EF-00C1-4A54-9B0E-FAF266394348}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{0286FA47-14CE-4473-A2C3-5B41DC540DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="10" r:id="rId1"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>Databook entries</t>
   </si>
@@ -534,46 +534,13 @@
     <t>y</t>
   </si>
   <si>
-    <t>LCHC_Laudium</t>
-  </si>
-  <si>
-    <t>Laudium Community Health Centre, Laudium</t>
-  </si>
-  <si>
     <t>SCHC_StanBop</t>
   </si>
   <si>
     <t>Stanza Bopape Community Health Centre, Stanza Bopape</t>
   </si>
   <si>
-    <t>MRH_Mamelodi</t>
-  </si>
-  <si>
-    <t>Mamelodi Regional Hospital, Mamelodi</t>
-  </si>
-  <si>
-    <t>89731.38</t>
-  </si>
-  <si>
-    <t>79913.85</t>
-  </si>
-  <si>
-    <t>9245.64</t>
-  </si>
-  <si>
-    <t>20513.68</t>
-  </si>
-  <si>
     <t>0.0</t>
-  </si>
-  <si>
-    <t>34483.8</t>
-  </si>
-  <si>
-    <t>55930.77</t>
-  </si>
-  <si>
-    <t>57954.65</t>
   </si>
   <si>
     <t>30270.94</t>
@@ -595,30 +562,6 @@
   </si>
   <si>
     <t>57472.4</t>
-  </si>
-  <si>
-    <t>1112993.8</t>
-  </si>
-  <si>
-    <t>314576.98</t>
-  </si>
-  <si>
-    <t>15960.58</t>
-  </si>
-  <si>
-    <t>404290.13</t>
-  </si>
-  <si>
-    <t>27835.6</t>
-  </si>
-  <si>
-    <t>159163.18</t>
-  </si>
-  <si>
-    <t>93256.73</t>
-  </si>
-  <si>
-    <t>47526.39</t>
   </si>
 </sst>
 </file>
@@ -1710,10 +1653,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1736,22 +1679,6 @@
       </c>
       <c r="B2" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1876,10 +1803,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:KB293"/>
+  <dimension ref="A1:KB291"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3053,10 +2980,10 @@
     <row r="2" spans="1:288" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="str">
         <f>IF(facility!$A2&lt;&gt;"",facility!$A2,"")</f>
-        <v>LCHC_Laudium</v>
+        <v>SCHC_StanBop</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3065,102 +2992,42 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
         <v>67</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>68</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>69</v>
-      </c>
-      <c r="H2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:288" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="str">
         <f>IF(facility!$A3&lt;&gt;"",facility!$A3,"")</f>
-        <v>SCHC_StanBop</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" t="s">
-        <v>80</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:288" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="str">
-        <f>IF(facility!$A4&lt;&gt;"",facility!$A4,"")</f>
-        <v>MRH_Mamelodi</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" t="s">
-        <v>88</v>
+        <f>IF(facility!$A8&lt;&gt;"",facility!$A8,"")</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:288" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="str">
-        <f>IF(facility!$A5&lt;&gt;"",facility!$A5,"")</f>
+        <f>IF(facility!$A9&lt;&gt;"",facility!$A9,"")</f>
         <v/>
       </c>
     </row>
@@ -3208,13 +3075,17 @@
     </row>
     <row r="13" spans="1:288" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="str">
-        <f>IF(facility!$A17&lt;&gt;"",facility!$A17,"")</f>
+        <f>IF(facility!$A28&lt;&gt;"",facility!$A28,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:288" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="str">
-        <f>IF(facility!$A18&lt;&gt;"",facility!$A18,"")</f>
+        <f>IF(facility!$A29&lt;&gt;"",facility!$A29,"")</f>
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <f>IF('emission sources'!$A12&lt;&gt;"",'emission sources'!$A12,"")</f>
         <v/>
       </c>
     </row>
@@ -3223,6 +3094,10 @@
         <f>IF(facility!$A30&lt;&gt;"",facility!$A30,"")</f>
         <v/>
       </c>
+      <c r="B15" t="str">
+        <f>IF('emission sources'!$A13&lt;&gt;"",'emission sources'!$A13,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:288" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="str">
@@ -3230,7 +3105,7 @@
         <v/>
       </c>
       <c r="B16" t="str">
-        <f>IF('emission sources'!$A12&lt;&gt;"",'emission sources'!$A12,"")</f>
+        <f>IF('emission sources'!$A14&lt;&gt;"",'emission sources'!$A14,"")</f>
         <v/>
       </c>
     </row>
@@ -3240,7 +3115,7 @@
         <v/>
       </c>
       <c r="B17" t="str">
-        <f>IF('emission sources'!$A13&lt;&gt;"",'emission sources'!$A13,"")</f>
+        <f>IF('emission sources'!$A15&lt;&gt;"",'emission sources'!$A15,"")</f>
         <v/>
       </c>
     </row>
@@ -3250,7 +3125,7 @@
         <v/>
       </c>
       <c r="B18" t="str">
-        <f>IF('emission sources'!$A14&lt;&gt;"",'emission sources'!$A14,"")</f>
+        <f>IF('emission sources'!$A16&lt;&gt;"",'emission sources'!$A16,"")</f>
         <v/>
       </c>
     </row>
@@ -3260,7 +3135,7 @@
         <v/>
       </c>
       <c r="B19" t="str">
-        <f>IF('emission sources'!$A15&lt;&gt;"",'emission sources'!$A15,"")</f>
+        <f>IF('emission sources'!$A17&lt;&gt;"",'emission sources'!$A17,"")</f>
         <v/>
       </c>
     </row>
@@ -3270,7 +3145,7 @@
         <v/>
       </c>
       <c r="B20" t="str">
-        <f>IF('emission sources'!$A16&lt;&gt;"",'emission sources'!$A16,"")</f>
+        <f>IF('emission sources'!$A18&lt;&gt;"",'emission sources'!$A18,"")</f>
         <v/>
       </c>
     </row>
@@ -3280,7 +3155,7 @@
         <v/>
       </c>
       <c r="B21" t="str">
-        <f>IF('emission sources'!$A17&lt;&gt;"",'emission sources'!$A17,"")</f>
+        <f>IF('emission sources'!$A19&lt;&gt;"",'emission sources'!$A19,"")</f>
         <v/>
       </c>
     </row>
@@ -3290,7 +3165,7 @@
         <v/>
       </c>
       <c r="B22" t="str">
-        <f>IF('emission sources'!$A18&lt;&gt;"",'emission sources'!$A18,"")</f>
+        <f>IF('emission sources'!$A20&lt;&gt;"",'emission sources'!$A20,"")</f>
         <v/>
       </c>
     </row>
@@ -3300,7 +3175,7 @@
         <v/>
       </c>
       <c r="B23" t="str">
-        <f>IF('emission sources'!$A19&lt;&gt;"",'emission sources'!$A19,"")</f>
+        <f>IF('emission sources'!$A21&lt;&gt;"",'emission sources'!$A21,"")</f>
         <v/>
       </c>
     </row>
@@ -3310,7 +3185,7 @@
         <v/>
       </c>
       <c r="B24" t="str">
-        <f>IF('emission sources'!$A20&lt;&gt;"",'emission sources'!$A20,"")</f>
+        <f>IF('emission sources'!$A22&lt;&gt;"",'emission sources'!$A22,"")</f>
         <v/>
       </c>
     </row>
@@ -3320,7 +3195,7 @@
         <v/>
       </c>
       <c r="B25" t="str">
-        <f>IF('emission sources'!$A21&lt;&gt;"",'emission sources'!$A21,"")</f>
+        <f>IF('emission sources'!$A23&lt;&gt;"",'emission sources'!$A23,"")</f>
         <v/>
       </c>
     </row>
@@ -3330,7 +3205,7 @@
         <v/>
       </c>
       <c r="B26" t="str">
-        <f>IF('emission sources'!$A22&lt;&gt;"",'emission sources'!$A22,"")</f>
+        <f>IF('emission sources'!$A24&lt;&gt;"",'emission sources'!$A24,"")</f>
         <v/>
       </c>
     </row>
@@ -3340,7 +3215,7 @@
         <v/>
       </c>
       <c r="B27" t="str">
-        <f>IF('emission sources'!$A23&lt;&gt;"",'emission sources'!$A23,"")</f>
+        <f>IF('emission sources'!$A25&lt;&gt;"",'emission sources'!$A25,"")</f>
         <v/>
       </c>
     </row>
@@ -3350,7 +3225,7 @@
         <v/>
       </c>
       <c r="B28" t="str">
-        <f>IF('emission sources'!$A24&lt;&gt;"",'emission sources'!$A24,"")</f>
+        <f>IF('emission sources'!$A26&lt;&gt;"",'emission sources'!$A26,"")</f>
         <v/>
       </c>
     </row>
@@ -3360,7 +3235,7 @@
         <v/>
       </c>
       <c r="B29" t="str">
-        <f>IF('emission sources'!$A25&lt;&gt;"",'emission sources'!$A25,"")</f>
+        <f>IF('emission sources'!$A27&lt;&gt;"",'emission sources'!$A27,"")</f>
         <v/>
       </c>
     </row>
@@ -3370,7 +3245,7 @@
         <v/>
       </c>
       <c r="B30" t="str">
-        <f>IF('emission sources'!$A26&lt;&gt;"",'emission sources'!$A26,"")</f>
+        <f>IF('emission sources'!$A28&lt;&gt;"",'emission sources'!$A28,"")</f>
         <v/>
       </c>
     </row>
@@ -3380,7 +3255,7 @@
         <v/>
       </c>
       <c r="B31" t="str">
-        <f>IF('emission sources'!$A27&lt;&gt;"",'emission sources'!$A27,"")</f>
+        <f>IF('emission sources'!$A29&lt;&gt;"",'emission sources'!$A29,"")</f>
         <v/>
       </c>
     </row>
@@ -3390,7 +3265,7 @@
         <v/>
       </c>
       <c r="B32" t="str">
-        <f>IF('emission sources'!$A28&lt;&gt;"",'emission sources'!$A28,"")</f>
+        <f>IF('emission sources'!$A30&lt;&gt;"",'emission sources'!$A30,"")</f>
         <v/>
       </c>
     </row>
@@ -3400,7 +3275,7 @@
         <v/>
       </c>
       <c r="B33" t="str">
-        <f>IF('emission sources'!$A29&lt;&gt;"",'emission sources'!$A29,"")</f>
+        <f>IF('emission sources'!$A31&lt;&gt;"",'emission sources'!$A31,"")</f>
         <v/>
       </c>
     </row>
@@ -3410,7 +3285,7 @@
         <v/>
       </c>
       <c r="B34" t="str">
-        <f>IF('emission sources'!$A30&lt;&gt;"",'emission sources'!$A30,"")</f>
+        <f>IF('emission sources'!$A32&lt;&gt;"",'emission sources'!$A32,"")</f>
         <v/>
       </c>
     </row>
@@ -3420,7 +3295,7 @@
         <v/>
       </c>
       <c r="B35" t="str">
-        <f>IF('emission sources'!$A31&lt;&gt;"",'emission sources'!$A31,"")</f>
+        <f>IF('emission sources'!$A33&lt;&gt;"",'emission sources'!$A33,"")</f>
         <v/>
       </c>
     </row>
@@ -3430,7 +3305,7 @@
         <v/>
       </c>
       <c r="B36" t="str">
-        <f>IF('emission sources'!$A32&lt;&gt;"",'emission sources'!$A32,"")</f>
+        <f>IF('emission sources'!$A34&lt;&gt;"",'emission sources'!$A34,"")</f>
         <v/>
       </c>
     </row>
@@ -3440,7 +3315,7 @@
         <v/>
       </c>
       <c r="B37" t="str">
-        <f>IF('emission sources'!$A33&lt;&gt;"",'emission sources'!$A33,"")</f>
+        <f>IF('emission sources'!$A35&lt;&gt;"",'emission sources'!$A35,"")</f>
         <v/>
       </c>
     </row>
@@ -3450,7 +3325,7 @@
         <v/>
       </c>
       <c r="B38" t="str">
-        <f>IF('emission sources'!$A34&lt;&gt;"",'emission sources'!$A34,"")</f>
+        <f>IF('emission sources'!$A36&lt;&gt;"",'emission sources'!$A36,"")</f>
         <v/>
       </c>
     </row>
@@ -3460,7 +3335,7 @@
         <v/>
       </c>
       <c r="B39" t="str">
-        <f>IF('emission sources'!$A35&lt;&gt;"",'emission sources'!$A35,"")</f>
+        <f>IF('emission sources'!$A37&lt;&gt;"",'emission sources'!$A37,"")</f>
         <v/>
       </c>
     </row>
@@ -3470,7 +3345,7 @@
         <v/>
       </c>
       <c r="B40" t="str">
-        <f>IF('emission sources'!$A36&lt;&gt;"",'emission sources'!$A36,"")</f>
+        <f>IF('emission sources'!$A38&lt;&gt;"",'emission sources'!$A38,"")</f>
         <v/>
       </c>
     </row>
@@ -3480,7 +3355,7 @@
         <v/>
       </c>
       <c r="B41" t="str">
-        <f>IF('emission sources'!$A37&lt;&gt;"",'emission sources'!$A37,"")</f>
+        <f>IF('emission sources'!$A39&lt;&gt;"",'emission sources'!$A39,"")</f>
         <v/>
       </c>
     </row>
@@ -3490,7 +3365,7 @@
         <v/>
       </c>
       <c r="B42" t="str">
-        <f>IF('emission sources'!$A38&lt;&gt;"",'emission sources'!$A38,"")</f>
+        <f>IF('emission sources'!$A40&lt;&gt;"",'emission sources'!$A40,"")</f>
         <v/>
       </c>
     </row>
@@ -3500,7 +3375,7 @@
         <v/>
       </c>
       <c r="B43" t="str">
-        <f>IF('emission sources'!$A39&lt;&gt;"",'emission sources'!$A39,"")</f>
+        <f>IF('emission sources'!$A41&lt;&gt;"",'emission sources'!$A41,"")</f>
         <v/>
       </c>
     </row>
@@ -3510,7 +3385,7 @@
         <v/>
       </c>
       <c r="B44" t="str">
-        <f>IF('emission sources'!$A40&lt;&gt;"",'emission sources'!$A40,"")</f>
+        <f>IF('emission sources'!$A42&lt;&gt;"",'emission sources'!$A42,"")</f>
         <v/>
       </c>
     </row>
@@ -3520,7 +3395,7 @@
         <v/>
       </c>
       <c r="B45" t="str">
-        <f>IF('emission sources'!$A41&lt;&gt;"",'emission sources'!$A41,"")</f>
+        <f>IF('emission sources'!$A43&lt;&gt;"",'emission sources'!$A43,"")</f>
         <v/>
       </c>
     </row>
@@ -3530,7 +3405,7 @@
         <v/>
       </c>
       <c r="B46" t="str">
-        <f>IF('emission sources'!$A42&lt;&gt;"",'emission sources'!$A42,"")</f>
+        <f>IF('emission sources'!$A44&lt;&gt;"",'emission sources'!$A44,"")</f>
         <v/>
       </c>
     </row>
@@ -3540,7 +3415,7 @@
         <v/>
       </c>
       <c r="B47" t="str">
-        <f>IF('emission sources'!$A43&lt;&gt;"",'emission sources'!$A43,"")</f>
+        <f>IF('emission sources'!$A45&lt;&gt;"",'emission sources'!$A45,"")</f>
         <v/>
       </c>
     </row>
@@ -3550,7 +3425,7 @@
         <v/>
       </c>
       <c r="B48" t="str">
-        <f>IF('emission sources'!$A44&lt;&gt;"",'emission sources'!$A44,"")</f>
+        <f>IF('emission sources'!$A46&lt;&gt;"",'emission sources'!$A46,"")</f>
         <v/>
       </c>
     </row>
@@ -3560,7 +3435,7 @@
         <v/>
       </c>
       <c r="B49" t="str">
-        <f>IF('emission sources'!$A45&lt;&gt;"",'emission sources'!$A45,"")</f>
+        <f>IF('emission sources'!$A47&lt;&gt;"",'emission sources'!$A47,"")</f>
         <v/>
       </c>
     </row>
@@ -3570,7 +3445,7 @@
         <v/>
       </c>
       <c r="B50" t="str">
-        <f>IF('emission sources'!$A46&lt;&gt;"",'emission sources'!$A46,"")</f>
+        <f>IF('emission sources'!$A48&lt;&gt;"",'emission sources'!$A48,"")</f>
         <v/>
       </c>
     </row>
@@ -3580,7 +3455,7 @@
         <v/>
       </c>
       <c r="B51" t="str">
-        <f>IF('emission sources'!$A47&lt;&gt;"",'emission sources'!$A47,"")</f>
+        <f>IF('emission sources'!$A49&lt;&gt;"",'emission sources'!$A49,"")</f>
         <v/>
       </c>
     </row>
@@ -3590,7 +3465,7 @@
         <v/>
       </c>
       <c r="B52" t="str">
-        <f>IF('emission sources'!$A48&lt;&gt;"",'emission sources'!$A48,"")</f>
+        <f>IF('emission sources'!$A50&lt;&gt;"",'emission sources'!$A50,"")</f>
         <v/>
       </c>
     </row>
@@ -3600,7 +3475,7 @@
         <v/>
       </c>
       <c r="B53" t="str">
-        <f>IF('emission sources'!$A49&lt;&gt;"",'emission sources'!$A49,"")</f>
+        <f>IF('emission sources'!$A51&lt;&gt;"",'emission sources'!$A51,"")</f>
         <v/>
       </c>
     </row>
@@ -3610,7 +3485,7 @@
         <v/>
       </c>
       <c r="B54" t="str">
-        <f>IF('emission sources'!$A50&lt;&gt;"",'emission sources'!$A50,"")</f>
+        <f>IF('emission sources'!$A52&lt;&gt;"",'emission sources'!$A52,"")</f>
         <v/>
       </c>
     </row>
@@ -3620,7 +3495,7 @@
         <v/>
       </c>
       <c r="B55" t="str">
-        <f>IF('emission sources'!$A51&lt;&gt;"",'emission sources'!$A51,"")</f>
+        <f>IF('emission sources'!$A53&lt;&gt;"",'emission sources'!$A53,"")</f>
         <v/>
       </c>
     </row>
@@ -3630,7 +3505,7 @@
         <v/>
       </c>
       <c r="B56" t="str">
-        <f>IF('emission sources'!$A52&lt;&gt;"",'emission sources'!$A52,"")</f>
+        <f>IF('emission sources'!$A54&lt;&gt;"",'emission sources'!$A54,"")</f>
         <v/>
       </c>
     </row>
@@ -3640,7 +3515,7 @@
         <v/>
       </c>
       <c r="B57" t="str">
-        <f>IF('emission sources'!$A53&lt;&gt;"",'emission sources'!$A53,"")</f>
+        <f>IF('emission sources'!$A55&lt;&gt;"",'emission sources'!$A55,"")</f>
         <v/>
       </c>
     </row>
@@ -3650,7 +3525,7 @@
         <v/>
       </c>
       <c r="B58" t="str">
-        <f>IF('emission sources'!$A54&lt;&gt;"",'emission sources'!$A54,"")</f>
+        <f>IF('emission sources'!$A56&lt;&gt;"",'emission sources'!$A56,"")</f>
         <v/>
       </c>
     </row>
@@ -3660,7 +3535,7 @@
         <v/>
       </c>
       <c r="B59" t="str">
-        <f>IF('emission sources'!$A55&lt;&gt;"",'emission sources'!$A55,"")</f>
+        <f>IF('emission sources'!$A57&lt;&gt;"",'emission sources'!$A57,"")</f>
         <v/>
       </c>
     </row>
@@ -3670,7 +3545,7 @@
         <v/>
       </c>
       <c r="B60" t="str">
-        <f>IF('emission sources'!$A56&lt;&gt;"",'emission sources'!$A56,"")</f>
+        <f>IF('emission sources'!$A58&lt;&gt;"",'emission sources'!$A58,"")</f>
         <v/>
       </c>
     </row>
@@ -3680,7 +3555,7 @@
         <v/>
       </c>
       <c r="B61" t="str">
-        <f>IF('emission sources'!$A57&lt;&gt;"",'emission sources'!$A57,"")</f>
+        <f>IF('emission sources'!$A59&lt;&gt;"",'emission sources'!$A59,"")</f>
         <v/>
       </c>
     </row>
@@ -3690,7 +3565,7 @@
         <v/>
       </c>
       <c r="B62" t="str">
-        <f>IF('emission sources'!$A58&lt;&gt;"",'emission sources'!$A58,"")</f>
+        <f>IF('emission sources'!$A60&lt;&gt;"",'emission sources'!$A60,"")</f>
         <v/>
       </c>
     </row>
@@ -3700,7 +3575,7 @@
         <v/>
       </c>
       <c r="B63" t="str">
-        <f>IF('emission sources'!$A59&lt;&gt;"",'emission sources'!$A59,"")</f>
+        <f>IF('emission sources'!$A61&lt;&gt;"",'emission sources'!$A61,"")</f>
         <v/>
       </c>
     </row>
@@ -3710,7 +3585,7 @@
         <v/>
       </c>
       <c r="B64" t="str">
-        <f>IF('emission sources'!$A60&lt;&gt;"",'emission sources'!$A60,"")</f>
+        <f>IF('emission sources'!$A62&lt;&gt;"",'emission sources'!$A62,"")</f>
         <v/>
       </c>
     </row>
@@ -3720,7 +3595,7 @@
         <v/>
       </c>
       <c r="B65" t="str">
-        <f>IF('emission sources'!$A61&lt;&gt;"",'emission sources'!$A61,"")</f>
+        <f>IF('emission sources'!$A63&lt;&gt;"",'emission sources'!$A63,"")</f>
         <v/>
       </c>
     </row>
@@ -3730,7 +3605,7 @@
         <v/>
       </c>
       <c r="B66" t="str">
-        <f>IF('emission sources'!$A62&lt;&gt;"",'emission sources'!$A62,"")</f>
+        <f>IF('emission sources'!$A64&lt;&gt;"",'emission sources'!$A64,"")</f>
         <v/>
       </c>
     </row>
@@ -3740,7 +3615,7 @@
         <v/>
       </c>
       <c r="B67" t="str">
-        <f>IF('emission sources'!$A63&lt;&gt;"",'emission sources'!$A63,"")</f>
+        <f>IF('emission sources'!$A65&lt;&gt;"",'emission sources'!$A65,"")</f>
         <v/>
       </c>
     </row>
@@ -3750,7 +3625,7 @@
         <v/>
       </c>
       <c r="B68" t="str">
-        <f>IF('emission sources'!$A64&lt;&gt;"",'emission sources'!$A64,"")</f>
+        <f>IF('emission sources'!$A66&lt;&gt;"",'emission sources'!$A66,"")</f>
         <v/>
       </c>
     </row>
@@ -3760,7 +3635,7 @@
         <v/>
       </c>
       <c r="B69" t="str">
-        <f>IF('emission sources'!$A65&lt;&gt;"",'emission sources'!$A65,"")</f>
+        <f>IF('emission sources'!$A67&lt;&gt;"",'emission sources'!$A67,"")</f>
         <v/>
       </c>
     </row>
@@ -3770,7 +3645,7 @@
         <v/>
       </c>
       <c r="B70" t="str">
-        <f>IF('emission sources'!$A66&lt;&gt;"",'emission sources'!$A66,"")</f>
+        <f>IF('emission sources'!$A68&lt;&gt;"",'emission sources'!$A68,"")</f>
         <v/>
       </c>
     </row>
@@ -3780,7 +3655,7 @@
         <v/>
       </c>
       <c r="B71" t="str">
-        <f>IF('emission sources'!$A67&lt;&gt;"",'emission sources'!$A67,"")</f>
+        <f>IF('emission sources'!$A69&lt;&gt;"",'emission sources'!$A69,"")</f>
         <v/>
       </c>
     </row>
@@ -3790,7 +3665,7 @@
         <v/>
       </c>
       <c r="B72" t="str">
-        <f>IF('emission sources'!$A68&lt;&gt;"",'emission sources'!$A68,"")</f>
+        <f>IF('emission sources'!$A70&lt;&gt;"",'emission sources'!$A70,"")</f>
         <v/>
       </c>
     </row>
@@ -3800,7 +3675,7 @@
         <v/>
       </c>
       <c r="B73" t="str">
-        <f>IF('emission sources'!$A69&lt;&gt;"",'emission sources'!$A69,"")</f>
+        <f>IF('emission sources'!$A71&lt;&gt;"",'emission sources'!$A71,"")</f>
         <v/>
       </c>
     </row>
@@ -3810,7 +3685,7 @@
         <v/>
       </c>
       <c r="B74" t="str">
-        <f>IF('emission sources'!$A70&lt;&gt;"",'emission sources'!$A70,"")</f>
+        <f>IF('emission sources'!$A72&lt;&gt;"",'emission sources'!$A72,"")</f>
         <v/>
       </c>
     </row>
@@ -3820,7 +3695,7 @@
         <v/>
       </c>
       <c r="B75" t="str">
-        <f>IF('emission sources'!$A71&lt;&gt;"",'emission sources'!$A71,"")</f>
+        <f>IF('emission sources'!$A73&lt;&gt;"",'emission sources'!$A73,"")</f>
         <v/>
       </c>
     </row>
@@ -3830,7 +3705,7 @@
         <v/>
       </c>
       <c r="B76" t="str">
-        <f>IF('emission sources'!$A72&lt;&gt;"",'emission sources'!$A72,"")</f>
+        <f>IF('emission sources'!$A74&lt;&gt;"",'emission sources'!$A74,"")</f>
         <v/>
       </c>
     </row>
@@ -3840,7 +3715,7 @@
         <v/>
       </c>
       <c r="B77" t="str">
-        <f>IF('emission sources'!$A73&lt;&gt;"",'emission sources'!$A73,"")</f>
+        <f>IF('emission sources'!$A75&lt;&gt;"",'emission sources'!$A75,"")</f>
         <v/>
       </c>
     </row>
@@ -3850,7 +3725,7 @@
         <v/>
       </c>
       <c r="B78" t="str">
-        <f>IF('emission sources'!$A74&lt;&gt;"",'emission sources'!$A74,"")</f>
+        <f>IF('emission sources'!$A76&lt;&gt;"",'emission sources'!$A76,"")</f>
         <v/>
       </c>
     </row>
@@ -3860,7 +3735,7 @@
         <v/>
       </c>
       <c r="B79" t="str">
-        <f>IF('emission sources'!$A75&lt;&gt;"",'emission sources'!$A75,"")</f>
+        <f>IF('emission sources'!$A77&lt;&gt;"",'emission sources'!$A77,"")</f>
         <v/>
       </c>
     </row>
@@ -3870,7 +3745,7 @@
         <v/>
       </c>
       <c r="B80" t="str">
-        <f>IF('emission sources'!$A76&lt;&gt;"",'emission sources'!$A76,"")</f>
+        <f>IF('emission sources'!$A78&lt;&gt;"",'emission sources'!$A78,"")</f>
         <v/>
       </c>
     </row>
@@ -3880,7 +3755,7 @@
         <v/>
       </c>
       <c r="B81" t="str">
-        <f>IF('emission sources'!$A77&lt;&gt;"",'emission sources'!$A77,"")</f>
+        <f>IF('emission sources'!$A79&lt;&gt;"",'emission sources'!$A79,"")</f>
         <v/>
       </c>
     </row>
@@ -3890,7 +3765,7 @@
         <v/>
       </c>
       <c r="B82" t="str">
-        <f>IF('emission sources'!$A78&lt;&gt;"",'emission sources'!$A78,"")</f>
+        <f>IF('emission sources'!$A80&lt;&gt;"",'emission sources'!$A80,"")</f>
         <v/>
       </c>
     </row>
@@ -3900,7 +3775,7 @@
         <v/>
       </c>
       <c r="B83" t="str">
-        <f>IF('emission sources'!$A79&lt;&gt;"",'emission sources'!$A79,"")</f>
+        <f>IF('emission sources'!$A81&lt;&gt;"",'emission sources'!$A81,"")</f>
         <v/>
       </c>
     </row>
@@ -3910,7 +3785,7 @@
         <v/>
       </c>
       <c r="B84" t="str">
-        <f>IF('emission sources'!$A80&lt;&gt;"",'emission sources'!$A80,"")</f>
+        <f>IF('emission sources'!$A82&lt;&gt;"",'emission sources'!$A82,"")</f>
         <v/>
       </c>
     </row>
@@ -3920,7 +3795,7 @@
         <v/>
       </c>
       <c r="B85" t="str">
-        <f>IF('emission sources'!$A81&lt;&gt;"",'emission sources'!$A81,"")</f>
+        <f>IF('emission sources'!$A83&lt;&gt;"",'emission sources'!$A83,"")</f>
         <v/>
       </c>
     </row>
@@ -3930,7 +3805,7 @@
         <v/>
       </c>
       <c r="B86" t="str">
-        <f>IF('emission sources'!$A82&lt;&gt;"",'emission sources'!$A82,"")</f>
+        <f>IF('emission sources'!$A84&lt;&gt;"",'emission sources'!$A84,"")</f>
         <v/>
       </c>
     </row>
@@ -3940,7 +3815,7 @@
         <v/>
       </c>
       <c r="B87" t="str">
-        <f>IF('emission sources'!$A83&lt;&gt;"",'emission sources'!$A83,"")</f>
+        <f>IF('emission sources'!$A85&lt;&gt;"",'emission sources'!$A85,"")</f>
         <v/>
       </c>
     </row>
@@ -3950,7 +3825,7 @@
         <v/>
       </c>
       <c r="B88" t="str">
-        <f>IF('emission sources'!$A84&lt;&gt;"",'emission sources'!$A84,"")</f>
+        <f>IF('emission sources'!$A86&lt;&gt;"",'emission sources'!$A86,"")</f>
         <v/>
       </c>
     </row>
@@ -3960,7 +3835,7 @@
         <v/>
       </c>
       <c r="B89" t="str">
-        <f>IF('emission sources'!$A85&lt;&gt;"",'emission sources'!$A85,"")</f>
+        <f>IF('emission sources'!$A87&lt;&gt;"",'emission sources'!$A87,"")</f>
         <v/>
       </c>
     </row>
@@ -3970,7 +3845,7 @@
         <v/>
       </c>
       <c r="B90" t="str">
-        <f>IF('emission sources'!$A86&lt;&gt;"",'emission sources'!$A86,"")</f>
+        <f>IF('emission sources'!$A88&lt;&gt;"",'emission sources'!$A88,"")</f>
         <v/>
       </c>
     </row>
@@ -3980,7 +3855,7 @@
         <v/>
       </c>
       <c r="B91" t="str">
-        <f>IF('emission sources'!$A87&lt;&gt;"",'emission sources'!$A87,"")</f>
+        <f>IF('emission sources'!$A89&lt;&gt;"",'emission sources'!$A89,"")</f>
         <v/>
       </c>
     </row>
@@ -3990,7 +3865,7 @@
         <v/>
       </c>
       <c r="B92" t="str">
-        <f>IF('emission sources'!$A88&lt;&gt;"",'emission sources'!$A88,"")</f>
+        <f>IF('emission sources'!$A90&lt;&gt;"",'emission sources'!$A90,"")</f>
         <v/>
       </c>
     </row>
@@ -4000,7 +3875,7 @@
         <v/>
       </c>
       <c r="B93" t="str">
-        <f>IF('emission sources'!$A89&lt;&gt;"",'emission sources'!$A89,"")</f>
+        <f>IF('emission sources'!$A91&lt;&gt;"",'emission sources'!$A91,"")</f>
         <v/>
       </c>
     </row>
@@ -4010,7 +3885,7 @@
         <v/>
       </c>
       <c r="B94" t="str">
-        <f>IF('emission sources'!$A90&lt;&gt;"",'emission sources'!$A90,"")</f>
+        <f>IF('emission sources'!$A92&lt;&gt;"",'emission sources'!$A92,"")</f>
         <v/>
       </c>
     </row>
@@ -4020,7 +3895,7 @@
         <v/>
       </c>
       <c r="B95" t="str">
-        <f>IF('emission sources'!$A91&lt;&gt;"",'emission sources'!$A91,"")</f>
+        <f>IF('emission sources'!$A93&lt;&gt;"",'emission sources'!$A93,"")</f>
         <v/>
       </c>
     </row>
@@ -4030,7 +3905,7 @@
         <v/>
       </c>
       <c r="B96" t="str">
-        <f>IF('emission sources'!$A92&lt;&gt;"",'emission sources'!$A92,"")</f>
+        <f>IF('emission sources'!$A94&lt;&gt;"",'emission sources'!$A94,"")</f>
         <v/>
       </c>
     </row>
@@ -4040,7 +3915,7 @@
         <v/>
       </c>
       <c r="B97" t="str">
-        <f>IF('emission sources'!$A93&lt;&gt;"",'emission sources'!$A93,"")</f>
+        <f>IF('emission sources'!$A95&lt;&gt;"",'emission sources'!$A95,"")</f>
         <v/>
       </c>
     </row>
@@ -4050,7 +3925,7 @@
         <v/>
       </c>
       <c r="B98" t="str">
-        <f>IF('emission sources'!$A94&lt;&gt;"",'emission sources'!$A94,"")</f>
+        <f>IF('emission sources'!$A96&lt;&gt;"",'emission sources'!$A96,"")</f>
         <v/>
       </c>
     </row>
@@ -4060,7 +3935,7 @@
         <v/>
       </c>
       <c r="B99" t="str">
-        <f>IF('emission sources'!$A95&lt;&gt;"",'emission sources'!$A95,"")</f>
+        <f>IF('emission sources'!$A97&lt;&gt;"",'emission sources'!$A97,"")</f>
         <v/>
       </c>
     </row>
@@ -4070,7 +3945,7 @@
         <v/>
       </c>
       <c r="B100" t="str">
-        <f>IF('emission sources'!$A96&lt;&gt;"",'emission sources'!$A96,"")</f>
+        <f>IF('emission sources'!$A98&lt;&gt;"",'emission sources'!$A98,"")</f>
         <v/>
       </c>
     </row>
@@ -4080,7 +3955,7 @@
         <v/>
       </c>
       <c r="B101" t="str">
-        <f>IF('emission sources'!$A97&lt;&gt;"",'emission sources'!$A97,"")</f>
+        <f>IF('emission sources'!$A99&lt;&gt;"",'emission sources'!$A99,"")</f>
         <v/>
       </c>
     </row>
@@ -4090,7 +3965,7 @@
         <v/>
       </c>
       <c r="B102" t="str">
-        <f>IF('emission sources'!$A98&lt;&gt;"",'emission sources'!$A98,"")</f>
+        <f>IF('emission sources'!$A100&lt;&gt;"",'emission sources'!$A100,"")</f>
         <v/>
       </c>
     </row>
@@ -4100,7 +3975,7 @@
         <v/>
       </c>
       <c r="B103" t="str">
-        <f>IF('emission sources'!$A99&lt;&gt;"",'emission sources'!$A99,"")</f>
+        <f>IF('emission sources'!$A101&lt;&gt;"",'emission sources'!$A101,"")</f>
         <v/>
       </c>
     </row>
@@ -4110,7 +3985,7 @@
         <v/>
       </c>
       <c r="B104" t="str">
-        <f>IF('emission sources'!$A100&lt;&gt;"",'emission sources'!$A100,"")</f>
+        <f>IF('emission sources'!$A102&lt;&gt;"",'emission sources'!$A102,"")</f>
         <v/>
       </c>
     </row>
@@ -4120,7 +3995,7 @@
         <v/>
       </c>
       <c r="B105" t="str">
-        <f>IF('emission sources'!$A101&lt;&gt;"",'emission sources'!$A101,"")</f>
+        <f>IF('emission sources'!$A103&lt;&gt;"",'emission sources'!$A103,"")</f>
         <v/>
       </c>
     </row>
@@ -4130,7 +4005,7 @@
         <v/>
       </c>
       <c r="B106" t="str">
-        <f>IF('emission sources'!$A102&lt;&gt;"",'emission sources'!$A102,"")</f>
+        <f>IF('emission sources'!$A104&lt;&gt;"",'emission sources'!$A104,"")</f>
         <v/>
       </c>
     </row>
@@ -4140,7 +4015,7 @@
         <v/>
       </c>
       <c r="B107" t="str">
-        <f>IF('emission sources'!$A103&lt;&gt;"",'emission sources'!$A103,"")</f>
+        <f>IF('emission sources'!$A105&lt;&gt;"",'emission sources'!$A105,"")</f>
         <v/>
       </c>
     </row>
@@ -4150,7 +4025,7 @@
         <v/>
       </c>
       <c r="B108" t="str">
-        <f>IF('emission sources'!$A104&lt;&gt;"",'emission sources'!$A104,"")</f>
+        <f>IF('emission sources'!$A106&lt;&gt;"",'emission sources'!$A106,"")</f>
         <v/>
       </c>
     </row>
@@ -4160,7 +4035,7 @@
         <v/>
       </c>
       <c r="B109" t="str">
-        <f>IF('emission sources'!$A105&lt;&gt;"",'emission sources'!$A105,"")</f>
+        <f>IF('emission sources'!$A107&lt;&gt;"",'emission sources'!$A107,"")</f>
         <v/>
       </c>
     </row>
@@ -4170,7 +4045,7 @@
         <v/>
       </c>
       <c r="B110" t="str">
-        <f>IF('emission sources'!$A106&lt;&gt;"",'emission sources'!$A106,"")</f>
+        <f>IF('emission sources'!$A108&lt;&gt;"",'emission sources'!$A108,"")</f>
         <v/>
       </c>
     </row>
@@ -4180,7 +4055,7 @@
         <v/>
       </c>
       <c r="B111" t="str">
-        <f>IF('emission sources'!$A107&lt;&gt;"",'emission sources'!$A107,"")</f>
+        <f>IF('emission sources'!$A109&lt;&gt;"",'emission sources'!$A109,"")</f>
         <v/>
       </c>
     </row>
@@ -4190,7 +4065,7 @@
         <v/>
       </c>
       <c r="B112" t="str">
-        <f>IF('emission sources'!$A108&lt;&gt;"",'emission sources'!$A108,"")</f>
+        <f>IF('emission sources'!$A110&lt;&gt;"",'emission sources'!$A110,"")</f>
         <v/>
       </c>
     </row>
@@ -4200,7 +4075,7 @@
         <v/>
       </c>
       <c r="B113" t="str">
-        <f>IF('emission sources'!$A109&lt;&gt;"",'emission sources'!$A109,"")</f>
+        <f>IF('emission sources'!$A111&lt;&gt;"",'emission sources'!$A111,"")</f>
         <v/>
       </c>
     </row>
@@ -4210,7 +4085,7 @@
         <v/>
       </c>
       <c r="B114" t="str">
-        <f>IF('emission sources'!$A110&lt;&gt;"",'emission sources'!$A110,"")</f>
+        <f>IF('emission sources'!$A112&lt;&gt;"",'emission sources'!$A112,"")</f>
         <v/>
       </c>
     </row>
@@ -4220,7 +4095,7 @@
         <v/>
       </c>
       <c r="B115" t="str">
-        <f>IF('emission sources'!$A111&lt;&gt;"",'emission sources'!$A111,"")</f>
+        <f>IF('emission sources'!$A113&lt;&gt;"",'emission sources'!$A113,"")</f>
         <v/>
       </c>
     </row>
@@ -4230,7 +4105,7 @@
         <v/>
       </c>
       <c r="B116" t="str">
-        <f>IF('emission sources'!$A112&lt;&gt;"",'emission sources'!$A112,"")</f>
+        <f>IF('emission sources'!$A114&lt;&gt;"",'emission sources'!$A114,"")</f>
         <v/>
       </c>
     </row>
@@ -4240,7 +4115,7 @@
         <v/>
       </c>
       <c r="B117" t="str">
-        <f>IF('emission sources'!$A113&lt;&gt;"",'emission sources'!$A113,"")</f>
+        <f>IF('emission sources'!$A115&lt;&gt;"",'emission sources'!$A115,"")</f>
         <v/>
       </c>
     </row>
@@ -4250,7 +4125,7 @@
         <v/>
       </c>
       <c r="B118" t="str">
-        <f>IF('emission sources'!$A114&lt;&gt;"",'emission sources'!$A114,"")</f>
+        <f>IF('emission sources'!$A116&lt;&gt;"",'emission sources'!$A116,"")</f>
         <v/>
       </c>
     </row>
@@ -4260,7 +4135,7 @@
         <v/>
       </c>
       <c r="B119" t="str">
-        <f>IF('emission sources'!$A115&lt;&gt;"",'emission sources'!$A115,"")</f>
+        <f>IF('emission sources'!$A117&lt;&gt;"",'emission sources'!$A117,"")</f>
         <v/>
       </c>
     </row>
@@ -4270,7 +4145,7 @@
         <v/>
       </c>
       <c r="B120" t="str">
-        <f>IF('emission sources'!$A116&lt;&gt;"",'emission sources'!$A116,"")</f>
+        <f>IF('emission sources'!$A118&lt;&gt;"",'emission sources'!$A118,"")</f>
         <v/>
       </c>
     </row>
@@ -4280,7 +4155,7 @@
         <v/>
       </c>
       <c r="B121" t="str">
-        <f>IF('emission sources'!$A117&lt;&gt;"",'emission sources'!$A117,"")</f>
+        <f>IF('emission sources'!$A119&lt;&gt;"",'emission sources'!$A119,"")</f>
         <v/>
       </c>
     </row>
@@ -4290,7 +4165,7 @@
         <v/>
       </c>
       <c r="B122" t="str">
-        <f>IF('emission sources'!$A118&lt;&gt;"",'emission sources'!$A118,"")</f>
+        <f>IF('emission sources'!$A120&lt;&gt;"",'emission sources'!$A120,"")</f>
         <v/>
       </c>
     </row>
@@ -4300,7 +4175,7 @@
         <v/>
       </c>
       <c r="B123" t="str">
-        <f>IF('emission sources'!$A119&lt;&gt;"",'emission sources'!$A119,"")</f>
+        <f>IF('emission sources'!$A121&lt;&gt;"",'emission sources'!$A121,"")</f>
         <v/>
       </c>
     </row>
@@ -4310,7 +4185,7 @@
         <v/>
       </c>
       <c r="B124" t="str">
-        <f>IF('emission sources'!$A120&lt;&gt;"",'emission sources'!$A120,"")</f>
+        <f>IF('emission sources'!$A122&lt;&gt;"",'emission sources'!$A122,"")</f>
         <v/>
       </c>
     </row>
@@ -4320,7 +4195,7 @@
         <v/>
       </c>
       <c r="B125" t="str">
-        <f>IF('emission sources'!$A121&lt;&gt;"",'emission sources'!$A121,"")</f>
+        <f>IF('emission sources'!$A123&lt;&gt;"",'emission sources'!$A123,"")</f>
         <v/>
       </c>
     </row>
@@ -4330,7 +4205,7 @@
         <v/>
       </c>
       <c r="B126" t="str">
-        <f>IF('emission sources'!$A122&lt;&gt;"",'emission sources'!$A122,"")</f>
+        <f>IF('emission sources'!$A124&lt;&gt;"",'emission sources'!$A124,"")</f>
         <v/>
       </c>
     </row>
@@ -4340,7 +4215,7 @@
         <v/>
       </c>
       <c r="B127" t="str">
-        <f>IF('emission sources'!$A123&lt;&gt;"",'emission sources'!$A123,"")</f>
+        <f>IF('emission sources'!$A125&lt;&gt;"",'emission sources'!$A125,"")</f>
         <v/>
       </c>
     </row>
@@ -4350,7 +4225,7 @@
         <v/>
       </c>
       <c r="B128" t="str">
-        <f>IF('emission sources'!$A124&lt;&gt;"",'emission sources'!$A124,"")</f>
+        <f>IF('emission sources'!$A126&lt;&gt;"",'emission sources'!$A126,"")</f>
         <v/>
       </c>
     </row>
@@ -4360,7 +4235,7 @@
         <v/>
       </c>
       <c r="B129" t="str">
-        <f>IF('emission sources'!$A125&lt;&gt;"",'emission sources'!$A125,"")</f>
+        <f>IF('emission sources'!$A127&lt;&gt;"",'emission sources'!$A127,"")</f>
         <v/>
       </c>
     </row>
@@ -4370,7 +4245,7 @@
         <v/>
       </c>
       <c r="B130" t="str">
-        <f>IF('emission sources'!$A126&lt;&gt;"",'emission sources'!$A126,"")</f>
+        <f>IF('emission sources'!$A128&lt;&gt;"",'emission sources'!$A128,"")</f>
         <v/>
       </c>
     </row>
@@ -4380,7 +4255,7 @@
         <v/>
       </c>
       <c r="B131" t="str">
-        <f>IF('emission sources'!$A127&lt;&gt;"",'emission sources'!$A127,"")</f>
+        <f>IF('emission sources'!$A129&lt;&gt;"",'emission sources'!$A129,"")</f>
         <v/>
       </c>
     </row>
@@ -4390,7 +4265,7 @@
         <v/>
       </c>
       <c r="B132" t="str">
-        <f>IF('emission sources'!$A128&lt;&gt;"",'emission sources'!$A128,"")</f>
+        <f>IF('emission sources'!$A130&lt;&gt;"",'emission sources'!$A130,"")</f>
         <v/>
       </c>
     </row>
@@ -4400,7 +4275,7 @@
         <v/>
       </c>
       <c r="B133" t="str">
-        <f>IF('emission sources'!$A129&lt;&gt;"",'emission sources'!$A129,"")</f>
+        <f>IF('emission sources'!$A131&lt;&gt;"",'emission sources'!$A131,"")</f>
         <v/>
       </c>
     </row>
@@ -4410,7 +4285,7 @@
         <v/>
       </c>
       <c r="B134" t="str">
-        <f>IF('emission sources'!$A130&lt;&gt;"",'emission sources'!$A130,"")</f>
+        <f>IF('emission sources'!$A132&lt;&gt;"",'emission sources'!$A132,"")</f>
         <v/>
       </c>
     </row>
@@ -4420,7 +4295,7 @@
         <v/>
       </c>
       <c r="B135" t="str">
-        <f>IF('emission sources'!$A131&lt;&gt;"",'emission sources'!$A131,"")</f>
+        <f>IF('emission sources'!$A133&lt;&gt;"",'emission sources'!$A133,"")</f>
         <v/>
       </c>
     </row>
@@ -4430,7 +4305,7 @@
         <v/>
       </c>
       <c r="B136" t="str">
-        <f>IF('emission sources'!$A132&lt;&gt;"",'emission sources'!$A132,"")</f>
+        <f>IF('emission sources'!$A134&lt;&gt;"",'emission sources'!$A134,"")</f>
         <v/>
       </c>
     </row>
@@ -4440,7 +4315,7 @@
         <v/>
       </c>
       <c r="B137" t="str">
-        <f>IF('emission sources'!$A133&lt;&gt;"",'emission sources'!$A133,"")</f>
+        <f>IF('emission sources'!$A135&lt;&gt;"",'emission sources'!$A135,"")</f>
         <v/>
       </c>
     </row>
@@ -4450,7 +4325,7 @@
         <v/>
       </c>
       <c r="B138" t="str">
-        <f>IF('emission sources'!$A134&lt;&gt;"",'emission sources'!$A134,"")</f>
+        <f>IF('emission sources'!$A136&lt;&gt;"",'emission sources'!$A136,"")</f>
         <v/>
       </c>
     </row>
@@ -4460,7 +4335,7 @@
         <v/>
       </c>
       <c r="B139" t="str">
-        <f>IF('emission sources'!$A135&lt;&gt;"",'emission sources'!$A135,"")</f>
+        <f>IF('emission sources'!$A137&lt;&gt;"",'emission sources'!$A137,"")</f>
         <v/>
       </c>
     </row>
@@ -4470,7 +4345,7 @@
         <v/>
       </c>
       <c r="B140" t="str">
-        <f>IF('emission sources'!$A136&lt;&gt;"",'emission sources'!$A136,"")</f>
+        <f>IF('emission sources'!$A138&lt;&gt;"",'emission sources'!$A138,"")</f>
         <v/>
       </c>
     </row>
@@ -4480,7 +4355,7 @@
         <v/>
       </c>
       <c r="B141" t="str">
-        <f>IF('emission sources'!$A137&lt;&gt;"",'emission sources'!$A137,"")</f>
+        <f>IF('emission sources'!$A139&lt;&gt;"",'emission sources'!$A139,"")</f>
         <v/>
       </c>
     </row>
@@ -4490,7 +4365,7 @@
         <v/>
       </c>
       <c r="B142" t="str">
-        <f>IF('emission sources'!$A138&lt;&gt;"",'emission sources'!$A138,"")</f>
+        <f>IF('emission sources'!$A140&lt;&gt;"",'emission sources'!$A140,"")</f>
         <v/>
       </c>
     </row>
@@ -4500,7 +4375,7 @@
         <v/>
       </c>
       <c r="B143" t="str">
-        <f>IF('emission sources'!$A139&lt;&gt;"",'emission sources'!$A139,"")</f>
+        <f>IF('emission sources'!$A141&lt;&gt;"",'emission sources'!$A141,"")</f>
         <v/>
       </c>
     </row>
@@ -4510,7 +4385,7 @@
         <v/>
       </c>
       <c r="B144" t="str">
-        <f>IF('emission sources'!$A140&lt;&gt;"",'emission sources'!$A140,"")</f>
+        <f>IF('emission sources'!$A142&lt;&gt;"",'emission sources'!$A142,"")</f>
         <v/>
       </c>
     </row>
@@ -4520,7 +4395,7 @@
         <v/>
       </c>
       <c r="B145" t="str">
-        <f>IF('emission sources'!$A141&lt;&gt;"",'emission sources'!$A141,"")</f>
+        <f>IF('emission sources'!$A143&lt;&gt;"",'emission sources'!$A143,"")</f>
         <v/>
       </c>
     </row>
@@ -4530,7 +4405,7 @@
         <v/>
       </c>
       <c r="B146" t="str">
-        <f>IF('emission sources'!$A142&lt;&gt;"",'emission sources'!$A142,"")</f>
+        <f>IF('emission sources'!$A144&lt;&gt;"",'emission sources'!$A144,"")</f>
         <v/>
       </c>
     </row>
@@ -4540,7 +4415,7 @@
         <v/>
       </c>
       <c r="B147" t="str">
-        <f>IF('emission sources'!$A143&lt;&gt;"",'emission sources'!$A143,"")</f>
+        <f>IF('emission sources'!$A145&lt;&gt;"",'emission sources'!$A145,"")</f>
         <v/>
       </c>
     </row>
@@ -4550,7 +4425,7 @@
         <v/>
       </c>
       <c r="B148" t="str">
-        <f>IF('emission sources'!$A144&lt;&gt;"",'emission sources'!$A144,"")</f>
+        <f>IF('emission sources'!$A146&lt;&gt;"",'emission sources'!$A146,"")</f>
         <v/>
       </c>
     </row>
@@ -4560,7 +4435,7 @@
         <v/>
       </c>
       <c r="B149" t="str">
-        <f>IF('emission sources'!$A145&lt;&gt;"",'emission sources'!$A145,"")</f>
+        <f>IF('emission sources'!$A147&lt;&gt;"",'emission sources'!$A147,"")</f>
         <v/>
       </c>
     </row>
@@ -4570,7 +4445,7 @@
         <v/>
       </c>
       <c r="B150" t="str">
-        <f>IF('emission sources'!$A146&lt;&gt;"",'emission sources'!$A146,"")</f>
+        <f>IF('emission sources'!$A148&lt;&gt;"",'emission sources'!$A148,"")</f>
         <v/>
       </c>
     </row>
@@ -4580,7 +4455,7 @@
         <v/>
       </c>
       <c r="B151" t="str">
-        <f>IF('emission sources'!$A147&lt;&gt;"",'emission sources'!$A147,"")</f>
+        <f>IF('emission sources'!$A149&lt;&gt;"",'emission sources'!$A149,"")</f>
         <v/>
       </c>
     </row>
@@ -4590,7 +4465,7 @@
         <v/>
       </c>
       <c r="B152" t="str">
-        <f>IF('emission sources'!$A148&lt;&gt;"",'emission sources'!$A148,"")</f>
+        <f>IF('emission sources'!$A150&lt;&gt;"",'emission sources'!$A150,"")</f>
         <v/>
       </c>
     </row>
@@ -4600,7 +4475,7 @@
         <v/>
       </c>
       <c r="B153" t="str">
-        <f>IF('emission sources'!$A149&lt;&gt;"",'emission sources'!$A149,"")</f>
+        <f>IF('emission sources'!$A151&lt;&gt;"",'emission sources'!$A151,"")</f>
         <v/>
       </c>
     </row>
@@ -4610,7 +4485,7 @@
         <v/>
       </c>
       <c r="B154" t="str">
-        <f>IF('emission sources'!$A150&lt;&gt;"",'emission sources'!$A150,"")</f>
+        <f>IF('emission sources'!$A152&lt;&gt;"",'emission sources'!$A152,"")</f>
         <v/>
       </c>
     </row>
@@ -4620,7 +4495,7 @@
         <v/>
       </c>
       <c r="B155" t="str">
-        <f>IF('emission sources'!$A151&lt;&gt;"",'emission sources'!$A151,"")</f>
+        <f>IF('emission sources'!$A153&lt;&gt;"",'emission sources'!$A153,"")</f>
         <v/>
       </c>
     </row>
@@ -4630,7 +4505,7 @@
         <v/>
       </c>
       <c r="B156" t="str">
-        <f>IF('emission sources'!$A152&lt;&gt;"",'emission sources'!$A152,"")</f>
+        <f>IF('emission sources'!$A154&lt;&gt;"",'emission sources'!$A154,"")</f>
         <v/>
       </c>
     </row>
@@ -4640,7 +4515,7 @@
         <v/>
       </c>
       <c r="B157" t="str">
-        <f>IF('emission sources'!$A153&lt;&gt;"",'emission sources'!$A153,"")</f>
+        <f>IF('emission sources'!$A155&lt;&gt;"",'emission sources'!$A155,"")</f>
         <v/>
       </c>
     </row>
@@ -4650,7 +4525,7 @@
         <v/>
       </c>
       <c r="B158" t="str">
-        <f>IF('emission sources'!$A154&lt;&gt;"",'emission sources'!$A154,"")</f>
+        <f>IF('emission sources'!$A156&lt;&gt;"",'emission sources'!$A156,"")</f>
         <v/>
       </c>
     </row>
@@ -4660,7 +4535,7 @@
         <v/>
       </c>
       <c r="B159" t="str">
-        <f>IF('emission sources'!$A155&lt;&gt;"",'emission sources'!$A155,"")</f>
+        <f>IF('emission sources'!$A157&lt;&gt;"",'emission sources'!$A157,"")</f>
         <v/>
       </c>
     </row>
@@ -4670,7 +4545,7 @@
         <v/>
       </c>
       <c r="B160" t="str">
-        <f>IF('emission sources'!$A156&lt;&gt;"",'emission sources'!$A156,"")</f>
+        <f>IF('emission sources'!$A158&lt;&gt;"",'emission sources'!$A158,"")</f>
         <v/>
       </c>
     </row>
@@ -4680,7 +4555,7 @@
         <v/>
       </c>
       <c r="B161" t="str">
-        <f>IF('emission sources'!$A157&lt;&gt;"",'emission sources'!$A157,"")</f>
+        <f>IF('emission sources'!$A159&lt;&gt;"",'emission sources'!$A159,"")</f>
         <v/>
       </c>
     </row>
@@ -4690,7 +4565,7 @@
         <v/>
       </c>
       <c r="B162" t="str">
-        <f>IF('emission sources'!$A158&lt;&gt;"",'emission sources'!$A158,"")</f>
+        <f>IF('emission sources'!$A160&lt;&gt;"",'emission sources'!$A160,"")</f>
         <v/>
       </c>
     </row>
@@ -4700,7 +4575,7 @@
         <v/>
       </c>
       <c r="B163" t="str">
-        <f>IF('emission sources'!$A159&lt;&gt;"",'emission sources'!$A159,"")</f>
+        <f>IF('emission sources'!$A161&lt;&gt;"",'emission sources'!$A161,"")</f>
         <v/>
       </c>
     </row>
@@ -4710,7 +4585,7 @@
         <v/>
       </c>
       <c r="B164" t="str">
-        <f>IF('emission sources'!$A160&lt;&gt;"",'emission sources'!$A160,"")</f>
+        <f>IF('emission sources'!$A162&lt;&gt;"",'emission sources'!$A162,"")</f>
         <v/>
       </c>
     </row>
@@ -4720,7 +4595,7 @@
         <v/>
       </c>
       <c r="B165" t="str">
-        <f>IF('emission sources'!$A161&lt;&gt;"",'emission sources'!$A161,"")</f>
+        <f>IF('emission sources'!$A163&lt;&gt;"",'emission sources'!$A163,"")</f>
         <v/>
       </c>
     </row>
@@ -4730,7 +4605,7 @@
         <v/>
       </c>
       <c r="B166" t="str">
-        <f>IF('emission sources'!$A162&lt;&gt;"",'emission sources'!$A162,"")</f>
+        <f>IF('emission sources'!$A164&lt;&gt;"",'emission sources'!$A164,"")</f>
         <v/>
       </c>
     </row>
@@ -4740,7 +4615,7 @@
         <v/>
       </c>
       <c r="B167" t="str">
-        <f>IF('emission sources'!$A163&lt;&gt;"",'emission sources'!$A163,"")</f>
+        <f>IF('emission sources'!$A165&lt;&gt;"",'emission sources'!$A165,"")</f>
         <v/>
       </c>
     </row>
@@ -4750,7 +4625,7 @@
         <v/>
       </c>
       <c r="B168" t="str">
-        <f>IF('emission sources'!$A164&lt;&gt;"",'emission sources'!$A164,"")</f>
+        <f>IF('emission sources'!$A166&lt;&gt;"",'emission sources'!$A166,"")</f>
         <v/>
       </c>
     </row>
@@ -4760,7 +4635,7 @@
         <v/>
       </c>
       <c r="B169" t="str">
-        <f>IF('emission sources'!$A165&lt;&gt;"",'emission sources'!$A165,"")</f>
+        <f>IF('emission sources'!$A167&lt;&gt;"",'emission sources'!$A167,"")</f>
         <v/>
       </c>
     </row>
@@ -4770,7 +4645,7 @@
         <v/>
       </c>
       <c r="B170" t="str">
-        <f>IF('emission sources'!$A166&lt;&gt;"",'emission sources'!$A166,"")</f>
+        <f>IF('emission sources'!$A168&lt;&gt;"",'emission sources'!$A168,"")</f>
         <v/>
       </c>
     </row>
@@ -4780,7 +4655,7 @@
         <v/>
       </c>
       <c r="B171" t="str">
-        <f>IF('emission sources'!$A167&lt;&gt;"",'emission sources'!$A167,"")</f>
+        <f>IF('emission sources'!$A169&lt;&gt;"",'emission sources'!$A169,"")</f>
         <v/>
       </c>
     </row>
@@ -4790,7 +4665,7 @@
         <v/>
       </c>
       <c r="B172" t="str">
-        <f>IF('emission sources'!$A168&lt;&gt;"",'emission sources'!$A168,"")</f>
+        <f>IF('emission sources'!$A170&lt;&gt;"",'emission sources'!$A170,"")</f>
         <v/>
       </c>
     </row>
@@ -4800,7 +4675,7 @@
         <v/>
       </c>
       <c r="B173" t="str">
-        <f>IF('emission sources'!$A169&lt;&gt;"",'emission sources'!$A169,"")</f>
+        <f>IF('emission sources'!$A171&lt;&gt;"",'emission sources'!$A171,"")</f>
         <v/>
       </c>
     </row>
@@ -4810,7 +4685,7 @@
         <v/>
       </c>
       <c r="B174" t="str">
-        <f>IF('emission sources'!$A170&lt;&gt;"",'emission sources'!$A170,"")</f>
+        <f>IF('emission sources'!$A172&lt;&gt;"",'emission sources'!$A172,"")</f>
         <v/>
       </c>
     </row>
@@ -4820,7 +4695,7 @@
         <v/>
       </c>
       <c r="B175" t="str">
-        <f>IF('emission sources'!$A171&lt;&gt;"",'emission sources'!$A171,"")</f>
+        <f>IF('emission sources'!$A173&lt;&gt;"",'emission sources'!$A173,"")</f>
         <v/>
       </c>
     </row>
@@ -4830,7 +4705,7 @@
         <v/>
       </c>
       <c r="B176" t="str">
-        <f>IF('emission sources'!$A172&lt;&gt;"",'emission sources'!$A172,"")</f>
+        <f>IF('emission sources'!$A174&lt;&gt;"",'emission sources'!$A174,"")</f>
         <v/>
       </c>
     </row>
@@ -4840,7 +4715,7 @@
         <v/>
       </c>
       <c r="B177" t="str">
-        <f>IF('emission sources'!$A173&lt;&gt;"",'emission sources'!$A173,"")</f>
+        <f>IF('emission sources'!$A175&lt;&gt;"",'emission sources'!$A175,"")</f>
         <v/>
       </c>
     </row>
@@ -4850,7 +4725,7 @@
         <v/>
       </c>
       <c r="B178" t="str">
-        <f>IF('emission sources'!$A174&lt;&gt;"",'emission sources'!$A174,"")</f>
+        <f>IF('emission sources'!$A176&lt;&gt;"",'emission sources'!$A176,"")</f>
         <v/>
       </c>
     </row>
@@ -4860,7 +4735,7 @@
         <v/>
       </c>
       <c r="B179" t="str">
-        <f>IF('emission sources'!$A175&lt;&gt;"",'emission sources'!$A175,"")</f>
+        <f>IF('emission sources'!$A177&lt;&gt;"",'emission sources'!$A177,"")</f>
         <v/>
       </c>
     </row>
@@ -4870,7 +4745,7 @@
         <v/>
       </c>
       <c r="B180" t="str">
-        <f>IF('emission sources'!$A176&lt;&gt;"",'emission sources'!$A176,"")</f>
+        <f>IF('emission sources'!$A178&lt;&gt;"",'emission sources'!$A178,"")</f>
         <v/>
       </c>
     </row>
@@ -4880,7 +4755,7 @@
         <v/>
       </c>
       <c r="B181" t="str">
-        <f>IF('emission sources'!$A177&lt;&gt;"",'emission sources'!$A177,"")</f>
+        <f>IF('emission sources'!$A179&lt;&gt;"",'emission sources'!$A179,"")</f>
         <v/>
       </c>
     </row>
@@ -4890,7 +4765,7 @@
         <v/>
       </c>
       <c r="B182" t="str">
-        <f>IF('emission sources'!$A178&lt;&gt;"",'emission sources'!$A178,"")</f>
+        <f>IF('emission sources'!$A180&lt;&gt;"",'emission sources'!$A180,"")</f>
         <v/>
       </c>
     </row>
@@ -4900,7 +4775,7 @@
         <v/>
       </c>
       <c r="B183" t="str">
-        <f>IF('emission sources'!$A179&lt;&gt;"",'emission sources'!$A179,"")</f>
+        <f>IF('emission sources'!$A181&lt;&gt;"",'emission sources'!$A181,"")</f>
         <v/>
       </c>
     </row>
@@ -4910,7 +4785,7 @@
         <v/>
       </c>
       <c r="B184" t="str">
-        <f>IF('emission sources'!$A180&lt;&gt;"",'emission sources'!$A180,"")</f>
+        <f>IF('emission sources'!$A182&lt;&gt;"",'emission sources'!$A182,"")</f>
         <v/>
       </c>
     </row>
@@ -4920,7 +4795,7 @@
         <v/>
       </c>
       <c r="B185" t="str">
-        <f>IF('emission sources'!$A181&lt;&gt;"",'emission sources'!$A181,"")</f>
+        <f>IF('emission sources'!$A183&lt;&gt;"",'emission sources'!$A183,"")</f>
         <v/>
       </c>
     </row>
@@ -4930,7 +4805,7 @@
         <v/>
       </c>
       <c r="B186" t="str">
-        <f>IF('emission sources'!$A182&lt;&gt;"",'emission sources'!$A182,"")</f>
+        <f>IF('emission sources'!$A184&lt;&gt;"",'emission sources'!$A184,"")</f>
         <v/>
       </c>
     </row>
@@ -4940,7 +4815,7 @@
         <v/>
       </c>
       <c r="B187" t="str">
-        <f>IF('emission sources'!$A183&lt;&gt;"",'emission sources'!$A183,"")</f>
+        <f>IF('emission sources'!$A185&lt;&gt;"",'emission sources'!$A185,"")</f>
         <v/>
       </c>
     </row>
@@ -4950,7 +4825,7 @@
         <v/>
       </c>
       <c r="B188" t="str">
-        <f>IF('emission sources'!$A184&lt;&gt;"",'emission sources'!$A184,"")</f>
+        <f>IF('emission sources'!$A186&lt;&gt;"",'emission sources'!$A186,"")</f>
         <v/>
       </c>
     </row>
@@ -4960,7 +4835,7 @@
         <v/>
       </c>
       <c r="B189" t="str">
-        <f>IF('emission sources'!$A185&lt;&gt;"",'emission sources'!$A185,"")</f>
+        <f>IF('emission sources'!$A187&lt;&gt;"",'emission sources'!$A187,"")</f>
         <v/>
       </c>
     </row>
@@ -4970,7 +4845,7 @@
         <v/>
       </c>
       <c r="B190" t="str">
-        <f>IF('emission sources'!$A186&lt;&gt;"",'emission sources'!$A186,"")</f>
+        <f>IF('emission sources'!$A188&lt;&gt;"",'emission sources'!$A188,"")</f>
         <v/>
       </c>
     </row>
@@ -4980,7 +4855,7 @@
         <v/>
       </c>
       <c r="B191" t="str">
-        <f>IF('emission sources'!$A187&lt;&gt;"",'emission sources'!$A187,"")</f>
+        <f>IF('emission sources'!$A189&lt;&gt;"",'emission sources'!$A189,"")</f>
         <v/>
       </c>
     </row>
@@ -4990,7 +4865,7 @@
         <v/>
       </c>
       <c r="B192" t="str">
-        <f>IF('emission sources'!$A188&lt;&gt;"",'emission sources'!$A188,"")</f>
+        <f>IF('emission sources'!$A190&lt;&gt;"",'emission sources'!$A190,"")</f>
         <v/>
       </c>
     </row>
@@ -5000,7 +4875,7 @@
         <v/>
       </c>
       <c r="B193" t="str">
-        <f>IF('emission sources'!$A189&lt;&gt;"",'emission sources'!$A189,"")</f>
+        <f>IF('emission sources'!$A191&lt;&gt;"",'emission sources'!$A191,"")</f>
         <v/>
       </c>
     </row>
@@ -5010,7 +4885,7 @@
         <v/>
       </c>
       <c r="B194" t="str">
-        <f>IF('emission sources'!$A190&lt;&gt;"",'emission sources'!$A190,"")</f>
+        <f>IF('emission sources'!$A192&lt;&gt;"",'emission sources'!$A192,"")</f>
         <v/>
       </c>
     </row>
@@ -5020,7 +4895,7 @@
         <v/>
       </c>
       <c r="B195" t="str">
-        <f>IF('emission sources'!$A191&lt;&gt;"",'emission sources'!$A191,"")</f>
+        <f>IF('emission sources'!$A193&lt;&gt;"",'emission sources'!$A193,"")</f>
         <v/>
       </c>
     </row>
@@ -5030,7 +4905,7 @@
         <v/>
       </c>
       <c r="B196" t="str">
-        <f>IF('emission sources'!$A192&lt;&gt;"",'emission sources'!$A192,"")</f>
+        <f>IF('emission sources'!$A194&lt;&gt;"",'emission sources'!$A194,"")</f>
         <v/>
       </c>
     </row>
@@ -5040,7 +4915,7 @@
         <v/>
       </c>
       <c r="B197" t="str">
-        <f>IF('emission sources'!$A193&lt;&gt;"",'emission sources'!$A193,"")</f>
+        <f>IF('emission sources'!$A195&lt;&gt;"",'emission sources'!$A195,"")</f>
         <v/>
       </c>
     </row>
@@ -5050,7 +4925,7 @@
         <v/>
       </c>
       <c r="B198" t="str">
-        <f>IF('emission sources'!$A194&lt;&gt;"",'emission sources'!$A194,"")</f>
+        <f>IF('emission sources'!$A196&lt;&gt;"",'emission sources'!$A196,"")</f>
         <v/>
       </c>
     </row>
@@ -5060,7 +4935,7 @@
         <v/>
       </c>
       <c r="B199" t="str">
-        <f>IF('emission sources'!$A195&lt;&gt;"",'emission sources'!$A195,"")</f>
+        <f>IF('emission sources'!$A197&lt;&gt;"",'emission sources'!$A197,"")</f>
         <v/>
       </c>
     </row>
@@ -5070,7 +4945,7 @@
         <v/>
       </c>
       <c r="B200" t="str">
-        <f>IF('emission sources'!$A196&lt;&gt;"",'emission sources'!$A196,"")</f>
+        <f>IF('emission sources'!$A198&lt;&gt;"",'emission sources'!$A198,"")</f>
         <v/>
       </c>
     </row>
@@ -5080,7 +4955,7 @@
         <v/>
       </c>
       <c r="B201" t="str">
-        <f>IF('emission sources'!$A197&lt;&gt;"",'emission sources'!$A197,"")</f>
+        <f>IF('emission sources'!$A199&lt;&gt;"",'emission sources'!$A199,"")</f>
         <v/>
       </c>
     </row>
@@ -5090,7 +4965,7 @@
         <v/>
       </c>
       <c r="B202" t="str">
-        <f>IF('emission sources'!$A198&lt;&gt;"",'emission sources'!$A198,"")</f>
+        <f>IF('emission sources'!$A200&lt;&gt;"",'emission sources'!$A200,"")</f>
         <v/>
       </c>
     </row>
@@ -5100,7 +4975,7 @@
         <v/>
       </c>
       <c r="B203" t="str">
-        <f>IF('emission sources'!$A199&lt;&gt;"",'emission sources'!$A199,"")</f>
+        <f>IF('emission sources'!$A201&lt;&gt;"",'emission sources'!$A201,"")</f>
         <v/>
       </c>
     </row>
@@ -5110,7 +4985,7 @@
         <v/>
       </c>
       <c r="B204" t="str">
-        <f>IF('emission sources'!$A200&lt;&gt;"",'emission sources'!$A200,"")</f>
+        <f>IF('emission sources'!$A202&lt;&gt;"",'emission sources'!$A202,"")</f>
         <v/>
       </c>
     </row>
@@ -5120,7 +4995,7 @@
         <v/>
       </c>
       <c r="B205" t="str">
-        <f>IF('emission sources'!$A201&lt;&gt;"",'emission sources'!$A201,"")</f>
+        <f>IF('emission sources'!$A203&lt;&gt;"",'emission sources'!$A203,"")</f>
         <v/>
       </c>
     </row>
@@ -5130,7 +5005,7 @@
         <v/>
       </c>
       <c r="B206" t="str">
-        <f>IF('emission sources'!$A202&lt;&gt;"",'emission sources'!$A202,"")</f>
+        <f>IF('emission sources'!$A204&lt;&gt;"",'emission sources'!$A204,"")</f>
         <v/>
       </c>
     </row>
@@ -5140,7 +5015,7 @@
         <v/>
       </c>
       <c r="B207" t="str">
-        <f>IF('emission sources'!$A203&lt;&gt;"",'emission sources'!$A203,"")</f>
+        <f>IF('emission sources'!$A205&lt;&gt;"",'emission sources'!$A205,"")</f>
         <v/>
       </c>
     </row>
@@ -5150,7 +5025,7 @@
         <v/>
       </c>
       <c r="B208" t="str">
-        <f>IF('emission sources'!$A204&lt;&gt;"",'emission sources'!$A204,"")</f>
+        <f>IF('emission sources'!$A206&lt;&gt;"",'emission sources'!$A206,"")</f>
         <v/>
       </c>
     </row>
@@ -5160,7 +5035,7 @@
         <v/>
       </c>
       <c r="B209" t="str">
-        <f>IF('emission sources'!$A205&lt;&gt;"",'emission sources'!$A205,"")</f>
+        <f>IF('emission sources'!$A207&lt;&gt;"",'emission sources'!$A207,"")</f>
         <v/>
       </c>
     </row>
@@ -5170,7 +5045,7 @@
         <v/>
       </c>
       <c r="B210" t="str">
-        <f>IF('emission sources'!$A206&lt;&gt;"",'emission sources'!$A206,"")</f>
+        <f>IF('emission sources'!$A208&lt;&gt;"",'emission sources'!$A208,"")</f>
         <v/>
       </c>
     </row>
@@ -5180,7 +5055,7 @@
         <v/>
       </c>
       <c r="B211" t="str">
-        <f>IF('emission sources'!$A207&lt;&gt;"",'emission sources'!$A207,"")</f>
+        <f>IF('emission sources'!$A209&lt;&gt;"",'emission sources'!$A209,"")</f>
         <v/>
       </c>
     </row>
@@ -5190,7 +5065,7 @@
         <v/>
       </c>
       <c r="B212" t="str">
-        <f>IF('emission sources'!$A208&lt;&gt;"",'emission sources'!$A208,"")</f>
+        <f>IF('emission sources'!$A210&lt;&gt;"",'emission sources'!$A210,"")</f>
         <v/>
       </c>
     </row>
@@ -5200,7 +5075,7 @@
         <v/>
       </c>
       <c r="B213" t="str">
-        <f>IF('emission sources'!$A209&lt;&gt;"",'emission sources'!$A209,"")</f>
+        <f>IF('emission sources'!$A211&lt;&gt;"",'emission sources'!$A211,"")</f>
         <v/>
       </c>
     </row>
@@ -5210,7 +5085,7 @@
         <v/>
       </c>
       <c r="B214" t="str">
-        <f>IF('emission sources'!$A210&lt;&gt;"",'emission sources'!$A210,"")</f>
+        <f>IF('emission sources'!$A212&lt;&gt;"",'emission sources'!$A212,"")</f>
         <v/>
       </c>
     </row>
@@ -5220,7 +5095,7 @@
         <v/>
       </c>
       <c r="B215" t="str">
-        <f>IF('emission sources'!$A211&lt;&gt;"",'emission sources'!$A211,"")</f>
+        <f>IF('emission sources'!$A213&lt;&gt;"",'emission sources'!$A213,"")</f>
         <v/>
       </c>
     </row>
@@ -5230,7 +5105,7 @@
         <v/>
       </c>
       <c r="B216" t="str">
-        <f>IF('emission sources'!$A212&lt;&gt;"",'emission sources'!$A212,"")</f>
+        <f>IF('emission sources'!$A214&lt;&gt;"",'emission sources'!$A214,"")</f>
         <v/>
       </c>
     </row>
@@ -5240,7 +5115,7 @@
         <v/>
       </c>
       <c r="B217" t="str">
-        <f>IF('emission sources'!$A213&lt;&gt;"",'emission sources'!$A213,"")</f>
+        <f>IF('emission sources'!$A215&lt;&gt;"",'emission sources'!$A215,"")</f>
         <v/>
       </c>
     </row>
@@ -5250,7 +5125,7 @@
         <v/>
       </c>
       <c r="B218" t="str">
-        <f>IF('emission sources'!$A214&lt;&gt;"",'emission sources'!$A214,"")</f>
+        <f>IF('emission sources'!$A216&lt;&gt;"",'emission sources'!$A216,"")</f>
         <v/>
       </c>
     </row>
@@ -5260,7 +5135,7 @@
         <v/>
       </c>
       <c r="B219" t="str">
-        <f>IF('emission sources'!$A215&lt;&gt;"",'emission sources'!$A215,"")</f>
+        <f>IF('emission sources'!$A217&lt;&gt;"",'emission sources'!$A217,"")</f>
         <v/>
       </c>
     </row>
@@ -5270,7 +5145,7 @@
         <v/>
       </c>
       <c r="B220" t="str">
-        <f>IF('emission sources'!$A216&lt;&gt;"",'emission sources'!$A216,"")</f>
+        <f>IF('emission sources'!$A218&lt;&gt;"",'emission sources'!$A218,"")</f>
         <v/>
       </c>
     </row>
@@ -5280,7 +5155,7 @@
         <v/>
       </c>
       <c r="B221" t="str">
-        <f>IF('emission sources'!$A217&lt;&gt;"",'emission sources'!$A217,"")</f>
+        <f>IF('emission sources'!$A219&lt;&gt;"",'emission sources'!$A219,"")</f>
         <v/>
       </c>
     </row>
@@ -5290,7 +5165,7 @@
         <v/>
       </c>
       <c r="B222" t="str">
-        <f>IF('emission sources'!$A218&lt;&gt;"",'emission sources'!$A218,"")</f>
+        <f>IF('emission sources'!$A220&lt;&gt;"",'emission sources'!$A220,"")</f>
         <v/>
       </c>
     </row>
@@ -5300,7 +5175,7 @@
         <v/>
       </c>
       <c r="B223" t="str">
-        <f>IF('emission sources'!$A219&lt;&gt;"",'emission sources'!$A219,"")</f>
+        <f>IF('emission sources'!$A221&lt;&gt;"",'emission sources'!$A221,"")</f>
         <v/>
       </c>
     </row>
@@ -5310,7 +5185,7 @@
         <v/>
       </c>
       <c r="B224" t="str">
-        <f>IF('emission sources'!$A220&lt;&gt;"",'emission sources'!$A220,"")</f>
+        <f>IF('emission sources'!$A222&lt;&gt;"",'emission sources'!$A222,"")</f>
         <v/>
       </c>
     </row>
@@ -5320,7 +5195,7 @@
         <v/>
       </c>
       <c r="B225" t="str">
-        <f>IF('emission sources'!$A221&lt;&gt;"",'emission sources'!$A221,"")</f>
+        <f>IF('emission sources'!$A223&lt;&gt;"",'emission sources'!$A223,"")</f>
         <v/>
       </c>
     </row>
@@ -5330,7 +5205,7 @@
         <v/>
       </c>
       <c r="B226" t="str">
-        <f>IF('emission sources'!$A222&lt;&gt;"",'emission sources'!$A222,"")</f>
+        <f>IF('emission sources'!$A224&lt;&gt;"",'emission sources'!$A224,"")</f>
         <v/>
       </c>
     </row>
@@ -5340,7 +5215,7 @@
         <v/>
       </c>
       <c r="B227" t="str">
-        <f>IF('emission sources'!$A223&lt;&gt;"",'emission sources'!$A223,"")</f>
+        <f>IF('emission sources'!$A225&lt;&gt;"",'emission sources'!$A225,"")</f>
         <v/>
       </c>
     </row>
@@ -5350,7 +5225,7 @@
         <v/>
       </c>
       <c r="B228" t="str">
-        <f>IF('emission sources'!$A224&lt;&gt;"",'emission sources'!$A224,"")</f>
+        <f>IF('emission sources'!$A226&lt;&gt;"",'emission sources'!$A226,"")</f>
         <v/>
       </c>
     </row>
@@ -5360,7 +5235,7 @@
         <v/>
       </c>
       <c r="B229" t="str">
-        <f>IF('emission sources'!$A225&lt;&gt;"",'emission sources'!$A225,"")</f>
+        <f>IF('emission sources'!$A227&lt;&gt;"",'emission sources'!$A227,"")</f>
         <v/>
       </c>
     </row>
@@ -5370,7 +5245,7 @@
         <v/>
       </c>
       <c r="B230" t="str">
-        <f>IF('emission sources'!$A226&lt;&gt;"",'emission sources'!$A226,"")</f>
+        <f>IF('emission sources'!$A228&lt;&gt;"",'emission sources'!$A228,"")</f>
         <v/>
       </c>
     </row>
@@ -5380,7 +5255,7 @@
         <v/>
       </c>
       <c r="B231" t="str">
-        <f>IF('emission sources'!$A227&lt;&gt;"",'emission sources'!$A227,"")</f>
+        <f>IF('emission sources'!$A229&lt;&gt;"",'emission sources'!$A229,"")</f>
         <v/>
       </c>
     </row>
@@ -5390,7 +5265,7 @@
         <v/>
       </c>
       <c r="B232" t="str">
-        <f>IF('emission sources'!$A228&lt;&gt;"",'emission sources'!$A228,"")</f>
+        <f>IF('emission sources'!$A230&lt;&gt;"",'emission sources'!$A230,"")</f>
         <v/>
       </c>
     </row>
@@ -5400,7 +5275,7 @@
         <v/>
       </c>
       <c r="B233" t="str">
-        <f>IF('emission sources'!$A229&lt;&gt;"",'emission sources'!$A229,"")</f>
+        <f>IF('emission sources'!$A231&lt;&gt;"",'emission sources'!$A231,"")</f>
         <v/>
       </c>
     </row>
@@ -5410,7 +5285,7 @@
         <v/>
       </c>
       <c r="B234" t="str">
-        <f>IF('emission sources'!$A230&lt;&gt;"",'emission sources'!$A230,"")</f>
+        <f>IF('emission sources'!$A232&lt;&gt;"",'emission sources'!$A232,"")</f>
         <v/>
       </c>
     </row>
@@ -5420,7 +5295,7 @@
         <v/>
       </c>
       <c r="B235" t="str">
-        <f>IF('emission sources'!$A231&lt;&gt;"",'emission sources'!$A231,"")</f>
+        <f>IF('emission sources'!$A233&lt;&gt;"",'emission sources'!$A233,"")</f>
         <v/>
       </c>
     </row>
@@ -5430,7 +5305,7 @@
         <v/>
       </c>
       <c r="B236" t="str">
-        <f>IF('emission sources'!$A232&lt;&gt;"",'emission sources'!$A232,"")</f>
+        <f>IF('emission sources'!$A234&lt;&gt;"",'emission sources'!$A234,"")</f>
         <v/>
       </c>
     </row>
@@ -5440,7 +5315,7 @@
         <v/>
       </c>
       <c r="B237" t="str">
-        <f>IF('emission sources'!$A233&lt;&gt;"",'emission sources'!$A233,"")</f>
+        <f>IF('emission sources'!$A235&lt;&gt;"",'emission sources'!$A235,"")</f>
         <v/>
       </c>
     </row>
@@ -5450,7 +5325,7 @@
         <v/>
       </c>
       <c r="B238" t="str">
-        <f>IF('emission sources'!$A234&lt;&gt;"",'emission sources'!$A234,"")</f>
+        <f>IF('emission sources'!$A236&lt;&gt;"",'emission sources'!$A236,"")</f>
         <v/>
       </c>
     </row>
@@ -5460,7 +5335,7 @@
         <v/>
       </c>
       <c r="B239" t="str">
-        <f>IF('emission sources'!$A235&lt;&gt;"",'emission sources'!$A235,"")</f>
+        <f>IF('emission sources'!$A237&lt;&gt;"",'emission sources'!$A237,"")</f>
         <v/>
       </c>
     </row>
@@ -5470,7 +5345,7 @@
         <v/>
       </c>
       <c r="B240" t="str">
-        <f>IF('emission sources'!$A236&lt;&gt;"",'emission sources'!$A236,"")</f>
+        <f>IF('emission sources'!$A238&lt;&gt;"",'emission sources'!$A238,"")</f>
         <v/>
       </c>
     </row>
@@ -5480,7 +5355,7 @@
         <v/>
       </c>
       <c r="B241" t="str">
-        <f>IF('emission sources'!$A237&lt;&gt;"",'emission sources'!$A237,"")</f>
+        <f>IF('emission sources'!$A239&lt;&gt;"",'emission sources'!$A239,"")</f>
         <v/>
       </c>
     </row>
@@ -5490,7 +5365,7 @@
         <v/>
       </c>
       <c r="B242" t="str">
-        <f>IF('emission sources'!$A238&lt;&gt;"",'emission sources'!$A238,"")</f>
+        <f>IF('emission sources'!$A240&lt;&gt;"",'emission sources'!$A240,"")</f>
         <v/>
       </c>
     </row>
@@ -5500,7 +5375,7 @@
         <v/>
       </c>
       <c r="B243" t="str">
-        <f>IF('emission sources'!$A239&lt;&gt;"",'emission sources'!$A239,"")</f>
+        <f>IF('emission sources'!$A241&lt;&gt;"",'emission sources'!$A241,"")</f>
         <v/>
       </c>
     </row>
@@ -5510,7 +5385,7 @@
         <v/>
       </c>
       <c r="B244" t="str">
-        <f>IF('emission sources'!$A240&lt;&gt;"",'emission sources'!$A240,"")</f>
+        <f>IF('emission sources'!$A242&lt;&gt;"",'emission sources'!$A242,"")</f>
         <v/>
       </c>
     </row>
@@ -5520,7 +5395,7 @@
         <v/>
       </c>
       <c r="B245" t="str">
-        <f>IF('emission sources'!$A241&lt;&gt;"",'emission sources'!$A241,"")</f>
+        <f>IF('emission sources'!$A243&lt;&gt;"",'emission sources'!$A243,"")</f>
         <v/>
       </c>
     </row>
@@ -5530,7 +5405,7 @@
         <v/>
       </c>
       <c r="B246" t="str">
-        <f>IF('emission sources'!$A242&lt;&gt;"",'emission sources'!$A242,"")</f>
+        <f>IF('emission sources'!$A244&lt;&gt;"",'emission sources'!$A244,"")</f>
         <v/>
       </c>
     </row>
@@ -5540,7 +5415,7 @@
         <v/>
       </c>
       <c r="B247" t="str">
-        <f>IF('emission sources'!$A243&lt;&gt;"",'emission sources'!$A243,"")</f>
+        <f>IF('emission sources'!$A245&lt;&gt;"",'emission sources'!$A245,"")</f>
         <v/>
       </c>
     </row>
@@ -5550,7 +5425,7 @@
         <v/>
       </c>
       <c r="B248" t="str">
-        <f>IF('emission sources'!$A244&lt;&gt;"",'emission sources'!$A244,"")</f>
+        <f>IF('emission sources'!$A246&lt;&gt;"",'emission sources'!$A246,"")</f>
         <v/>
       </c>
     </row>
@@ -5560,7 +5435,7 @@
         <v/>
       </c>
       <c r="B249" t="str">
-        <f>IF('emission sources'!$A245&lt;&gt;"",'emission sources'!$A245,"")</f>
+        <f>IF('emission sources'!$A247&lt;&gt;"",'emission sources'!$A247,"")</f>
         <v/>
       </c>
     </row>
@@ -5570,7 +5445,7 @@
         <v/>
       </c>
       <c r="B250" t="str">
-        <f>IF('emission sources'!$A246&lt;&gt;"",'emission sources'!$A246,"")</f>
+        <f>IF('emission sources'!$A248&lt;&gt;"",'emission sources'!$A248,"")</f>
         <v/>
       </c>
     </row>
@@ -5580,7 +5455,7 @@
         <v/>
       </c>
       <c r="B251" t="str">
-        <f>IF('emission sources'!$A247&lt;&gt;"",'emission sources'!$A247,"")</f>
+        <f>IF('emission sources'!$A249&lt;&gt;"",'emission sources'!$A249,"")</f>
         <v/>
       </c>
     </row>
@@ -5590,7 +5465,7 @@
         <v/>
       </c>
       <c r="B252" t="str">
-        <f>IF('emission sources'!$A248&lt;&gt;"",'emission sources'!$A248,"")</f>
+        <f>IF('emission sources'!$A250&lt;&gt;"",'emission sources'!$A250,"")</f>
         <v/>
       </c>
     </row>
@@ -5600,7 +5475,7 @@
         <v/>
       </c>
       <c r="B253" t="str">
-        <f>IF('emission sources'!$A249&lt;&gt;"",'emission sources'!$A249,"")</f>
+        <f>IF('emission sources'!$A251&lt;&gt;"",'emission sources'!$A251,"")</f>
         <v/>
       </c>
     </row>
@@ -5610,7 +5485,7 @@
         <v/>
       </c>
       <c r="B254" t="str">
-        <f>IF('emission sources'!$A250&lt;&gt;"",'emission sources'!$A250,"")</f>
+        <f>IF('emission sources'!$A252&lt;&gt;"",'emission sources'!$A252,"")</f>
         <v/>
       </c>
     </row>
@@ -5620,7 +5495,7 @@
         <v/>
       </c>
       <c r="B255" t="str">
-        <f>IF('emission sources'!$A251&lt;&gt;"",'emission sources'!$A251,"")</f>
+        <f>IF('emission sources'!$A253&lt;&gt;"",'emission sources'!$A253,"")</f>
         <v/>
       </c>
     </row>
@@ -5630,7 +5505,7 @@
         <v/>
       </c>
       <c r="B256" t="str">
-        <f>IF('emission sources'!$A252&lt;&gt;"",'emission sources'!$A252,"")</f>
+        <f>IF('emission sources'!$A254&lt;&gt;"",'emission sources'!$A254,"")</f>
         <v/>
       </c>
     </row>
@@ -5640,7 +5515,7 @@
         <v/>
       </c>
       <c r="B257" t="str">
-        <f>IF('emission sources'!$A253&lt;&gt;"",'emission sources'!$A253,"")</f>
+        <f>IF('emission sources'!$A255&lt;&gt;"",'emission sources'!$A255,"")</f>
         <v/>
       </c>
     </row>
@@ -5650,7 +5525,7 @@
         <v/>
       </c>
       <c r="B258" t="str">
-        <f>IF('emission sources'!$A254&lt;&gt;"",'emission sources'!$A254,"")</f>
+        <f>IF('emission sources'!$A256&lt;&gt;"",'emission sources'!$A256,"")</f>
         <v/>
       </c>
     </row>
@@ -5660,7 +5535,7 @@
         <v/>
       </c>
       <c r="B259" t="str">
-        <f>IF('emission sources'!$A255&lt;&gt;"",'emission sources'!$A255,"")</f>
+        <f>IF('emission sources'!$A257&lt;&gt;"",'emission sources'!$A257,"")</f>
         <v/>
       </c>
     </row>
@@ -5670,7 +5545,7 @@
         <v/>
       </c>
       <c r="B260" t="str">
-        <f>IF('emission sources'!$A256&lt;&gt;"",'emission sources'!$A256,"")</f>
+        <f>IF('emission sources'!$A258&lt;&gt;"",'emission sources'!$A258,"")</f>
         <v/>
       </c>
     </row>
@@ -5680,7 +5555,7 @@
         <v/>
       </c>
       <c r="B261" t="str">
-        <f>IF('emission sources'!$A257&lt;&gt;"",'emission sources'!$A257,"")</f>
+        <f>IF('emission sources'!$A259&lt;&gt;"",'emission sources'!$A259,"")</f>
         <v/>
       </c>
     </row>
@@ -5690,7 +5565,7 @@
         <v/>
       </c>
       <c r="B262" t="str">
-        <f>IF('emission sources'!$A258&lt;&gt;"",'emission sources'!$A258,"")</f>
+        <f>IF('emission sources'!$A260&lt;&gt;"",'emission sources'!$A260,"")</f>
         <v/>
       </c>
     </row>
@@ -5700,7 +5575,7 @@
         <v/>
       </c>
       <c r="B263" t="str">
-        <f>IF('emission sources'!$A259&lt;&gt;"",'emission sources'!$A259,"")</f>
+        <f>IF('emission sources'!$A261&lt;&gt;"",'emission sources'!$A261,"")</f>
         <v/>
       </c>
     </row>
@@ -5710,7 +5585,7 @@
         <v/>
       </c>
       <c r="B264" t="str">
-        <f>IF('emission sources'!$A260&lt;&gt;"",'emission sources'!$A260,"")</f>
+        <f>IF('emission sources'!$A262&lt;&gt;"",'emission sources'!$A262,"")</f>
         <v/>
       </c>
     </row>
@@ -5720,7 +5595,7 @@
         <v/>
       </c>
       <c r="B265" t="str">
-        <f>IF('emission sources'!$A261&lt;&gt;"",'emission sources'!$A261,"")</f>
+        <f>IF('emission sources'!$A263&lt;&gt;"",'emission sources'!$A263,"")</f>
         <v/>
       </c>
     </row>
@@ -5730,7 +5605,7 @@
         <v/>
       </c>
       <c r="B266" t="str">
-        <f>IF('emission sources'!$A262&lt;&gt;"",'emission sources'!$A262,"")</f>
+        <f>IF('emission sources'!$A264&lt;&gt;"",'emission sources'!$A264,"")</f>
         <v/>
       </c>
     </row>
@@ -5740,7 +5615,7 @@
         <v/>
       </c>
       <c r="B267" t="str">
-        <f>IF('emission sources'!$A263&lt;&gt;"",'emission sources'!$A263,"")</f>
+        <f>IF('emission sources'!$A265&lt;&gt;"",'emission sources'!$A265,"")</f>
         <v/>
       </c>
     </row>
@@ -5750,7 +5625,7 @@
         <v/>
       </c>
       <c r="B268" t="str">
-        <f>IF('emission sources'!$A264&lt;&gt;"",'emission sources'!$A264,"")</f>
+        <f>IF('emission sources'!$A266&lt;&gt;"",'emission sources'!$A266,"")</f>
         <v/>
       </c>
     </row>
@@ -5760,7 +5635,7 @@
         <v/>
       </c>
       <c r="B269" t="str">
-        <f>IF('emission sources'!$A265&lt;&gt;"",'emission sources'!$A265,"")</f>
+        <f>IF('emission sources'!$A267&lt;&gt;"",'emission sources'!$A267,"")</f>
         <v/>
       </c>
     </row>
@@ -5770,7 +5645,7 @@
         <v/>
       </c>
       <c r="B270" t="str">
-        <f>IF('emission sources'!$A266&lt;&gt;"",'emission sources'!$A266,"")</f>
+        <f>IF('emission sources'!$A268&lt;&gt;"",'emission sources'!$A268,"")</f>
         <v/>
       </c>
     </row>
@@ -5780,7 +5655,7 @@
         <v/>
       </c>
       <c r="B271" t="str">
-        <f>IF('emission sources'!$A267&lt;&gt;"",'emission sources'!$A267,"")</f>
+        <f>IF('emission sources'!$A269&lt;&gt;"",'emission sources'!$A269,"")</f>
         <v/>
       </c>
     </row>
@@ -5790,7 +5665,7 @@
         <v/>
       </c>
       <c r="B272" t="str">
-        <f>IF('emission sources'!$A268&lt;&gt;"",'emission sources'!$A268,"")</f>
+        <f>IF('emission sources'!$A270&lt;&gt;"",'emission sources'!$A270,"")</f>
         <v/>
       </c>
     </row>
@@ -5800,7 +5675,7 @@
         <v/>
       </c>
       <c r="B273" t="str">
-        <f>IF('emission sources'!$A269&lt;&gt;"",'emission sources'!$A269,"")</f>
+        <f>IF('emission sources'!$A271&lt;&gt;"",'emission sources'!$A271,"")</f>
         <v/>
       </c>
     </row>
@@ -5810,7 +5685,7 @@
         <v/>
       </c>
       <c r="B274" t="str">
-        <f>IF('emission sources'!$A270&lt;&gt;"",'emission sources'!$A270,"")</f>
+        <f>IF('emission sources'!$A272&lt;&gt;"",'emission sources'!$A272,"")</f>
         <v/>
       </c>
     </row>
@@ -5820,7 +5695,7 @@
         <v/>
       </c>
       <c r="B275" t="str">
-        <f>IF('emission sources'!$A271&lt;&gt;"",'emission sources'!$A271,"")</f>
+        <f>IF('emission sources'!$A273&lt;&gt;"",'emission sources'!$A273,"")</f>
         <v/>
       </c>
     </row>
@@ -5830,7 +5705,7 @@
         <v/>
       </c>
       <c r="B276" t="str">
-        <f>IF('emission sources'!$A272&lt;&gt;"",'emission sources'!$A272,"")</f>
+        <f>IF('emission sources'!$A274&lt;&gt;"",'emission sources'!$A274,"")</f>
         <v/>
       </c>
     </row>
@@ -5840,7 +5715,7 @@
         <v/>
       </c>
       <c r="B277" t="str">
-        <f>IF('emission sources'!$A273&lt;&gt;"",'emission sources'!$A273,"")</f>
+        <f>IF('emission sources'!$A275&lt;&gt;"",'emission sources'!$A275,"")</f>
         <v/>
       </c>
     </row>
@@ -5850,7 +5725,7 @@
         <v/>
       </c>
       <c r="B278" t="str">
-        <f>IF('emission sources'!$A274&lt;&gt;"",'emission sources'!$A274,"")</f>
+        <f>IF('emission sources'!$A276&lt;&gt;"",'emission sources'!$A276,"")</f>
         <v/>
       </c>
     </row>
@@ -5860,7 +5735,7 @@
         <v/>
       </c>
       <c r="B279" t="str">
-        <f>IF('emission sources'!$A275&lt;&gt;"",'emission sources'!$A275,"")</f>
+        <f>IF('emission sources'!$A277&lt;&gt;"",'emission sources'!$A277,"")</f>
         <v/>
       </c>
     </row>
@@ -5870,7 +5745,7 @@
         <v/>
       </c>
       <c r="B280" t="str">
-        <f>IF('emission sources'!$A276&lt;&gt;"",'emission sources'!$A276,"")</f>
+        <f>IF('emission sources'!$A278&lt;&gt;"",'emission sources'!$A278,"")</f>
         <v/>
       </c>
     </row>
@@ -5880,7 +5755,7 @@
         <v/>
       </c>
       <c r="B281" t="str">
-        <f>IF('emission sources'!$A277&lt;&gt;"",'emission sources'!$A277,"")</f>
+        <f>IF('emission sources'!$A279&lt;&gt;"",'emission sources'!$A279,"")</f>
         <v/>
       </c>
     </row>
@@ -5890,7 +5765,7 @@
         <v/>
       </c>
       <c r="B282" t="str">
-        <f>IF('emission sources'!$A278&lt;&gt;"",'emission sources'!$A278,"")</f>
+        <f>IF('emission sources'!$A280&lt;&gt;"",'emission sources'!$A280,"")</f>
         <v/>
       </c>
     </row>
@@ -5900,7 +5775,7 @@
         <v/>
       </c>
       <c r="B283" t="str">
-        <f>IF('emission sources'!$A279&lt;&gt;"",'emission sources'!$A279,"")</f>
+        <f>IF('emission sources'!$A281&lt;&gt;"",'emission sources'!$A281,"")</f>
         <v/>
       </c>
     </row>
@@ -5910,7 +5785,7 @@
         <v/>
       </c>
       <c r="B284" t="str">
-        <f>IF('emission sources'!$A280&lt;&gt;"",'emission sources'!$A280,"")</f>
+        <f>IF('emission sources'!$A282&lt;&gt;"",'emission sources'!$A282,"")</f>
         <v/>
       </c>
     </row>
@@ -5920,7 +5795,7 @@
         <v/>
       </c>
       <c r="B285" t="str">
-        <f>IF('emission sources'!$A281&lt;&gt;"",'emission sources'!$A281,"")</f>
+        <f>IF('emission sources'!$A283&lt;&gt;"",'emission sources'!$A283,"")</f>
         <v/>
       </c>
     </row>
@@ -5930,7 +5805,7 @@
         <v/>
       </c>
       <c r="B286" t="str">
-        <f>IF('emission sources'!$A282&lt;&gt;"",'emission sources'!$A282,"")</f>
+        <f>IF('emission sources'!$A284&lt;&gt;"",'emission sources'!$A284,"")</f>
         <v/>
       </c>
     </row>
@@ -5940,7 +5815,7 @@
         <v/>
       </c>
       <c r="B287" t="str">
-        <f>IF('emission sources'!$A283&lt;&gt;"",'emission sources'!$A283,"")</f>
+        <f>IF('emission sources'!$A285&lt;&gt;"",'emission sources'!$A285,"")</f>
         <v/>
       </c>
     </row>
@@ -5950,7 +5825,7 @@
         <v/>
       </c>
       <c r="B288" t="str">
-        <f>IF('emission sources'!$A284&lt;&gt;"",'emission sources'!$A284,"")</f>
+        <f>IF('emission sources'!$A286&lt;&gt;"",'emission sources'!$A286,"")</f>
         <v/>
       </c>
     </row>
@@ -5960,7 +5835,7 @@
         <v/>
       </c>
       <c r="B289" t="str">
-        <f>IF('emission sources'!$A285&lt;&gt;"",'emission sources'!$A285,"")</f>
+        <f>IF('emission sources'!$A287&lt;&gt;"",'emission sources'!$A287,"")</f>
         <v/>
       </c>
     </row>
@@ -5970,33 +5845,13 @@
         <v/>
       </c>
       <c r="B290" t="str">
-        <f>IF('emission sources'!$A286&lt;&gt;"",'emission sources'!$A286,"")</f>
+        <f>IF('emission sources'!$A288&lt;&gt;"",'emission sources'!$A288,"")</f>
         <v/>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="str">
         <f>IF(facility!$A306&lt;&gt;"",facility!$A306,"")</f>
-        <v/>
-      </c>
-      <c r="B291" t="str">
-        <f>IF('emission sources'!$A287&lt;&gt;"",'emission sources'!$A287,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A292" s="2" t="str">
-        <f>IF(facility!$A307&lt;&gt;"",facility!$A307,"")</f>
-        <v/>
-      </c>
-      <c r="B292" t="str">
-        <f>IF('emission sources'!$A288&lt;&gt;"",'emission sources'!$A288,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A293" s="2" t="str">
-        <f>IF(facility!$A308&lt;&gt;"",facility!$A308,"")</f>
         <v/>
       </c>
     </row>
@@ -6013,7 +5868,7 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -9448,10 +9303,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:KR308"/>
+  <dimension ref="A1:KR306"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10688,7 +10543,7 @@
     <row r="2" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="str">
         <f>IF(facility!$A2&lt;&gt;"",facility!$A2,"")</f>
-        <v>LCHC_Laudium</v>
+        <v>SCHC_StanBop</v>
       </c>
       <c r="B2" s="10">
         <v>0.89800000000000002</v>
@@ -10721,67 +10576,13 @@
     <row r="3" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="str">
         <f>IF(facility!$A3&lt;&gt;"",facility!$A3,"")</f>
-        <v>SCHC_StanBop</v>
-      </c>
-      <c r="B3" s="10">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="C3">
-        <v>0.108</v>
-      </c>
-      <c r="D3">
-        <v>0.1</v>
-      </c>
-      <c r="E3">
-        <v>0.75</v>
-      </c>
-      <c r="F3">
-        <v>0.99</v>
-      </c>
-      <c r="G3">
-        <v>0.46</v>
-      </c>
-      <c r="H3">
-        <v>0.999</v>
-      </c>
-      <c r="I3">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="J3" s="13">
-        <v>0.75</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="str">
         <f>IF(facility!$A4&lt;&gt;"",facility!$A4,"")</f>
-        <v>MRH_Mamelodi</v>
-      </c>
-      <c r="B4" s="10">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="C4">
-        <v>0.108</v>
-      </c>
-      <c r="D4">
-        <v>0.1</v>
-      </c>
-      <c r="E4">
-        <v>0.75</v>
-      </c>
-      <c r="F4">
-        <v>0.99</v>
-      </c>
-      <c r="G4">
-        <v>0.46</v>
-      </c>
-      <c r="H4">
-        <v>0.999</v>
-      </c>
-      <c r="I4">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="J4" s="13">
-        <v>0.75</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:304" x14ac:dyDescent="0.35">
@@ -12593,18 +12394,6 @@
     <row r="306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="str">
         <f>IF(facility!$A306&lt;&gt;"",facility!$A306,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A307" s="2" t="str">
-        <f>IF(facility!$A307&lt;&gt;"",facility!$A307,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A308" s="2" t="str">
-        <f>IF(facility!$A308&lt;&gt;"",facility!$A308,"")</f>
         <v/>
       </c>
     </row>
@@ -12619,10 +12408,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:KR308"/>
+  <dimension ref="A1:KR306"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13862,7 +13651,7 @@
     <row r="2" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="str">
         <f>IF(facility!$A2&lt;&gt;"",facility!$A2,"")</f>
-        <v>LCHC_Laudium</v>
+        <v>SCHC_StanBop</v>
       </c>
       <c r="B2" s="1">
         <v>421135.25752090407</v>
@@ -13895,68 +13684,24 @@
     <row r="3" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="str">
         <f>IF(facility!$A3&lt;&gt;"",facility!$A3,"")</f>
-        <v>SCHC_StanBop</v>
-      </c>
-      <c r="B3" s="1">
-        <v>421135.25752090407</v>
-      </c>
-      <c r="C3" s="1">
-        <v>50000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E3" s="1">
-        <v>30000</v>
-      </c>
-      <c r="F3" s="1">
-        <v>41000</v>
-      </c>
-      <c r="G3" s="12">
-        <v>10000</v>
-      </c>
-      <c r="H3" s="12">
-        <v>12000</v>
-      </c>
-      <c r="I3" s="1">
-        <v>39374.369999999995</v>
-      </c>
-      <c r="J3" s="1">
-        <v>8000</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="str">
         <f>IF(facility!$A4&lt;&gt;"",facility!$A4,"")</f>
-        <v>MRH_Mamelodi</v>
-      </c>
-      <c r="B4" s="1">
-        <v>421135.25752090407</v>
-      </c>
-      <c r="C4" s="1">
-        <v>50000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E4" s="1">
-        <v>30000</v>
-      </c>
-      <c r="F4" s="1">
-        <v>41000</v>
-      </c>
-      <c r="G4" s="12">
-        <v>10000</v>
-      </c>
-      <c r="H4" s="12">
-        <v>12000</v>
-      </c>
-      <c r="I4" s="1">
-        <v>39374.369999999995</v>
-      </c>
-      <c r="J4" s="1">
-        <v>8000</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="str">
@@ -13986,10 +13731,6 @@
         <v/>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="str">
@@ -13997,10 +13738,6 @@
         <v/>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="str">
@@ -16087,20 +15824,6 @@
         <v/>
       </c>
       <c r="B306" s="1"/>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A307" s="2" t="str">
-        <f>IF(facility!$A307&lt;&gt;"",facility!$A307,"")</f>
-        <v/>
-      </c>
-      <c r="B307" s="1"/>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A308" s="2" t="str">
-        <f>IF(facility!$A308&lt;&gt;"",facility!$A308,"")</f>
-        <v/>
-      </c>
-      <c r="B308" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16113,10 +15836,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:KR308"/>
+  <dimension ref="A1:KR306"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17356,7 +17079,7 @@
     <row r="2" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="str">
         <f>IF(facility!$A2&lt;&gt;"",facility!$A2,"")</f>
-        <v>LCHC_Laudium</v>
+        <v>SCHC_StanBop</v>
       </c>
       <c r="B2" s="1">
         <f>'implementation costs'!B2/10</f>
@@ -17398,86 +17121,24 @@
     <row r="3" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="str">
         <f>IF(facility!$A3&lt;&gt;"",facility!$A3,"")</f>
-        <v>SCHC_StanBop</v>
-      </c>
-      <c r="B3" s="1">
-        <f>'implementation costs'!B3/10</f>
-        <v>42113.525752090405</v>
-      </c>
-      <c r="C3" s="1">
-        <f>'implementation costs'!C3/10</f>
-        <v>5000</v>
-      </c>
-      <c r="D3" s="1">
-        <f>'implementation costs'!D3/10</f>
-        <v>1000</v>
-      </c>
-      <c r="E3" s="1">
-        <f>'implementation costs'!E3/10</f>
-        <v>3000</v>
-      </c>
-      <c r="F3" s="1">
-        <f>'implementation costs'!F3/10</f>
-        <v>4100</v>
-      </c>
-      <c r="G3" s="1">
-        <f>'implementation costs'!G3/10</f>
-        <v>1000</v>
-      </c>
-      <c r="H3" s="1">
-        <f>'implementation costs'!H3/10</f>
-        <v>1200</v>
-      </c>
-      <c r="I3" s="1">
-        <f>'implementation costs'!I3/10</f>
-        <v>3937.4369999999994</v>
-      </c>
-      <c r="J3" s="1">
-        <f>'implementation costs'!J3/10</f>
-        <v>800</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="str">
         <f>IF(facility!$A4&lt;&gt;"",facility!$A4,"")</f>
-        <v>MRH_Mamelodi</v>
-      </c>
-      <c r="B4" s="1">
-        <f>'implementation costs'!B4/10</f>
-        <v>42113.525752090405</v>
-      </c>
-      <c r="C4" s="1">
-        <f>'implementation costs'!C4/10</f>
-        <v>5000</v>
-      </c>
-      <c r="D4" s="1">
-        <f>'implementation costs'!D4/10</f>
-        <v>1000</v>
-      </c>
-      <c r="E4" s="1">
-        <f>'implementation costs'!E4/10</f>
-        <v>3000</v>
-      </c>
-      <c r="F4" s="1">
-        <f>'implementation costs'!F4/10</f>
-        <v>4100</v>
-      </c>
-      <c r="G4" s="1">
-        <f>'implementation costs'!G4/10</f>
-        <v>1000</v>
-      </c>
-      <c r="H4" s="1">
-        <f>'implementation costs'!H4/10</f>
-        <v>1200</v>
-      </c>
-      <c r="I4" s="1">
-        <f>'implementation costs'!I4/10</f>
-        <v>3937.4369999999994</v>
-      </c>
-      <c r="J4" s="1">
-        <f>'implementation costs'!J4/10</f>
-        <v>800</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="str">
@@ -17507,10 +17168,6 @@
         <v/>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="str">
@@ -17518,10 +17175,6 @@
         <v/>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:304" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="str">
@@ -19608,20 +19261,6 @@
         <v/>
       </c>
       <c r="B306" s="1"/>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A307" s="2" t="str">
-        <f>IF(facility!$A307&lt;&gt;"",facility!$A307,"")</f>
-        <v/>
-      </c>
-      <c r="B307" s="1"/>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A308" s="2" t="str">
-        <f>IF(facility!$A308&lt;&gt;"",facility!$A308,"")</f>
-        <v/>
-      </c>
-      <c r="B308" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
